--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2385495.527404413</v>
+        <v>2329309.221384632</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2534781.911988051</v>
+        <v>2534781.911988049</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11695169.28139951</v>
+        <v>11695169.28139949</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>61.23371647033766</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>61.23371647033766</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="T11" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,17 +1460,17 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>69.52056819974763</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>69.52056819974763</v>
       </c>
-      <c r="I12" t="n">
-        <v>61.23371647033766</v>
-      </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>61.23371647033769</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>50.03603960367344</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="H13" t="n">
-        <v>50.03603960367354</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>61.23371647033769</v>
-      </c>
-      <c r="T14" t="n">
-        <v>69.52056819974763</v>
-      </c>
-      <c r="U14" t="n">
-        <v>69.52056819974763</v>
-      </c>
-      <c r="V14" t="n">
-        <v>69.52056819974763</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>61.23371647033766</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>69.52056819974763</v>
       </c>
       <c r="S15" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>69.52056819974763</v>
       </c>
       <c r="U15" t="n">
-        <v>61.23371647033766</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1776,40 +1776,40 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>50.03603960367352</v>
       </c>
       <c r="H16" t="n">
-        <v>39.71583713240269</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>69.52056819974763</v>
-      </c>
-      <c r="J16" t="n">
-        <v>69.52056819974763</v>
-      </c>
-      <c r="K16" t="n">
-        <v>10.32020247127042</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1861,7 +1861,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>145.8784688404977</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>128.8194493303263</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>81.5322179183307</v>
       </c>
       <c r="S18" t="n">
-        <v>153.0575548695254</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>181.5391124605092</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>207.3157658466624</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>153.5579190703709</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.147368969165</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>187.0570795429919</v>
       </c>
     </row>
     <row r="19">
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>63.1267407342811</v>
+        <v>148.6212048643154</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>73.17331101282279</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>158.6677751428571</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>131.2435017068373</v>
       </c>
       <c r="S20" t="n">
-        <v>117.5859394844449</v>
+        <v>190.3944533519329</v>
       </c>
       <c r="T20" t="n">
         <v>204.4702333298189</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>168.2057750101711</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>154.0828827540033</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>70.92970130185603</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>81.5322179183307</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>153.0575548695254</v>
       </c>
       <c r="T21" t="n">
-        <v>181.5391124605092</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>147.8789905960086</v>
       </c>
       <c r="V21" t="n">
         <v>214.1749709151129</v>
@@ -2225,7 +2225,7 @@
         <v>233.0693669266072</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>187.147368969165</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>21.83547875935578</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>221.7945158771382</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>199.9590371177824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,10 +2326,10 @@
         <v>268.6007811041128</v>
       </c>
       <c r="E23" t="n">
-        <v>295.8481095556916</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>310.5348570774067</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>124.3936290538357</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>57.76017525674183</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>165.2633923912663</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.6699979535647</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>283.6488401618989</v>
       </c>
       <c r="Y23" t="n">
-        <v>266.3530681842092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.978567166355673</v>
+        <v>80.45092313329715</v>
       </c>
       <c r="C24" t="n">
         <v>86.62623847174555</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>61.36280504806857</v>
       </c>
       <c r="E24" t="n">
         <v>71.56281993883076</v>
       </c>
       <c r="F24" t="n">
-        <v>58.98695187681369</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>51.26125664664045</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>26.15318371992628</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.31437233484489</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>119.6907246869073</v>
       </c>
       <c r="Y24" t="n">
-        <v>119.6004352607342</v>
+        <v>119.4810388239494</v>
       </c>
     </row>
     <row r="25">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44.01603373545277</v>
+        <v>93.74971966536711</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>62.53321250164217</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>141.8633289117113</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>166.0553828072578</v>
+        <v>48.58845058270544</v>
       </c>
       <c r="W25" t="n">
         <v>200.4407378200208</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>139.627394872467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>132.5023928355246</v>
       </c>
     </row>
     <row r="26">
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>36.46637243676587</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>101.3664046058544</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>122.9378090696751</v>
       </c>
       <c r="T26" t="n">
-        <v>137.0135890475612</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>165.2633923912663</v>
       </c>
       <c r="V26" t="n">
-        <v>241.6699979535647</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>263.1587082008429</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>283.6488401618988</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>300.1556781394834</v>
       </c>
     </row>
     <row r="27">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>80.45092313329715</v>
+        <v>80.45092313329714</v>
       </c>
       <c r="C27" t="n">
-        <v>86.62623847174555</v>
+        <v>86.62623847174554</v>
       </c>
       <c r="D27" t="n">
-        <v>61.36280504806857</v>
+        <v>61.36280504806855</v>
       </c>
       <c r="E27" t="n">
-        <v>71.56281993883076</v>
+        <v>71.44342350204612</v>
       </c>
       <c r="F27" t="n">
-        <v>58.98695187681369</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>51.26125664664045</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.31437233484489</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.07557363607295</v>
+        <v>14.07557363607293</v>
       </c>
       <c r="S27" t="n">
-        <v>85.60091058726763</v>
+        <v>85.60091058726762</v>
       </c>
       <c r="T27" t="n">
         <v>114.0824681782514</v>
@@ -2693,7 +2693,7 @@
         <v>139.8591215644046</v>
       </c>
       <c r="V27" t="n">
-        <v>33.03634933777125</v>
+        <v>146.7183266328551</v>
       </c>
       <c r="W27" t="n">
         <v>165.6127226443494</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>81.16456058205763</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>60.35170212999898</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.5642356985614332</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>7.276919600102588</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2757,28 +2757,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.07978273512419776</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>137.9343375204021</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>200.2367688399207</v>
       </c>
       <c r="V28" t="n">
-        <v>137.1361660824655</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>200.4407378200208</v>
       </c>
       <c r="X28" t="n">
-        <v>139.627394872467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>132.5023928355246</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>295.8481095556915</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>310.5348570774067</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>192.284042116231</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>253.392541599197</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>122.9378090696751</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>137.0135890475611</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>165.2633923912662</v>
+        <v>165.2633923912663</v>
       </c>
       <c r="V29" t="n">
-        <v>183.9050951423226</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>283.6488401618989</v>
       </c>
       <c r="Y29" t="n">
-        <v>300.1556781394833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>80.45092313329707</v>
+        <v>80.45092313329715</v>
       </c>
       <c r="C30" t="n">
-        <v>86.62623847174547</v>
+        <v>86.62623847174555</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>61.36280504806857</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>71.56281993883076</v>
       </c>
       <c r="F30" t="n">
-        <v>58.98695187681361</v>
+        <v>58.98695187681369</v>
       </c>
       <c r="G30" t="n">
-        <v>47.66609295337533</v>
+        <v>51.26125664664045</v>
       </c>
       <c r="H30" t="n">
-        <v>26.15318371992619</v>
+        <v>26.15318371992628</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.07557363607286</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>85.60091058726755</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>114.0824681782513</v>
+        <v>77.23816372142673</v>
       </c>
       <c r="U30" t="n">
-        <v>139.8591215644045</v>
+        <v>139.8591215644046</v>
       </c>
       <c r="V30" t="n">
-        <v>146.718326632855</v>
+        <v>146.7183266328551</v>
       </c>
       <c r="W30" t="n">
-        <v>165.6127226443493</v>
+        <v>165.6127226443494</v>
       </c>
       <c r="X30" t="n">
-        <v>119.6907246869072</v>
+        <v>119.6907246869073</v>
       </c>
       <c r="Y30" t="n">
-        <v>119.6004352607341</v>
+        <v>119.6004352607342</v>
       </c>
     </row>
     <row r="31">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>93.74971966536711</v>
       </c>
       <c r="C31" t="n">
-        <v>81.16456058205756</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>59.33878750636097</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>76.1449119908693</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>69.36821441068801</v>
+        <v>69.3682144106881</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2994,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.07978273512411249</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>47.32171476680737</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>141.8633289117112</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>179.6609739920383</v>
       </c>
       <c r="X31" t="n">
-        <v>139.6273948724669</v>
+        <v>139.627394872467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>132.5023928355246</v>
       </c>
     </row>
     <row r="32">
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>310.5348570774067</v>
       </c>
       <c r="G32" t="n">
-        <v>215.9207103935339</v>
+        <v>310.5348570774067</v>
       </c>
       <c r="H32" t="n">
         <v>250.0781692643521</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.13448412219569</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>161.9490200564214</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>280.334467827054</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>296.8413058046385</v>
@@ -3113,19 +3113,19 @@
         <v>83.31186613690066</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E33" t="n">
-        <v>39.49167665971768</v>
+        <v>62.99014094459894</v>
       </c>
       <c r="F33" t="n">
         <v>55.6725795419688</v>
       </c>
       <c r="G33" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>82.28653825242274</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>77.85018824721276</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>80.77964253239543</v>
       </c>
       <c r="U34" t="n">
         <v>196.9223965050758</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>98.31019911303311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,16 +3271,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>157.6514377519634</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>32.18946381887719</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,13 +3347,13 @@
         <v>77.13655079845226</v>
       </c>
       <c r="C36" t="n">
-        <v>34.14654066064988</v>
+        <v>72.51413651953423</v>
       </c>
       <c r="D36" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U36" t="n">
         <v>136.5447492295597</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C37" t="n">
-        <v>77.85018824721276</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U37" t="n">
-        <v>52.20297777959001</v>
+        <v>43.47723600179321</v>
       </c>
       <c r="V37" t="n">
         <v>162.7410104724129</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>22.73814918744792</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>241.0142888776591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>22.73814918744792</v>
       </c>
       <c r="T38" t="n">
         <v>201.155860994974</v>
@@ -3562,7 +3562,7 @@
         <v>229.4056643386792</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>144.59319508071</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>150.7685104191584</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>135.7050918862436</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>90.29545566733914</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.45664428225776</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>178.2247401256643</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>187.2290434230313</v>
       </c>
       <c r="W39" t="n">
         <v>229.7549945917623</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>183.8329966343202</v>
       </c>
       <c r="Y39" t="n">
-        <v>89.298130642442</v>
+        <v>183.742707208147</v>
       </c>
     </row>
     <row r="40">
@@ -3681,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>133.510486358101</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>71.41919154751545</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>202.0766094678149</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>35.95998803623064</v>
       </c>
       <c r="V40" t="n">
-        <v>33.10691959842918</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="E41" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>59.27512633026996</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>1.958590140067713</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>59.27512633026996</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
     </row>
     <row r="42">
@@ -3830,52 +3830,52 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
         <v>69.52056819974763</v>
       </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
       <c r="S42" t="n">
-        <v>61.23371647033769</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>61.23371647033766</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>40.43796862227167</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3942,28 +3942,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>40.43796862227168</v>
+      </c>
+      <c r="U43" t="n">
         <v>69.52056819974763</v>
       </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,28 +3979,28 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>69.52056819974763</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>61.23371647033766</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.958590140067713</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>69.52056819974763</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>69.52056819974763</v>
       </c>
       <c r="Y44" t="n">
-        <v>59.27512633026996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,19 +4061,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4155,13 +4155,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>40.43796862227167</v>
       </c>
       <c r="K46" t="n">
-        <v>12.27879261133805</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4179,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>69.52056819974763</v>
       </c>
       <c r="S46" t="n">
-        <v>28.15917601093362</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>67.41388431490675</v>
+        <v>75.78444161734106</v>
       </c>
       <c r="C11" t="n">
-        <v>67.41388431490675</v>
+        <v>75.78444161734106</v>
       </c>
       <c r="D11" t="n">
-        <v>67.41388431490675</v>
+        <v>75.78444161734106</v>
       </c>
       <c r="E11" t="n">
-        <v>67.41388431490675</v>
+        <v>75.78444161734106</v>
       </c>
       <c r="F11" t="n">
-        <v>5.561645455979811</v>
+        <v>75.78444161734106</v>
       </c>
       <c r="G11" t="n">
-        <v>5.561645455979811</v>
+        <v>75.78444161734106</v>
       </c>
       <c r="H11" t="n">
         <v>5.561645455979811</v>
@@ -5050,13 +5050,13 @@
         <v>143.2123704914801</v>
       </c>
       <c r="M11" t="n">
-        <v>209.2569102812404</v>
+        <v>212.0377330092302</v>
       </c>
       <c r="N11" t="n">
-        <v>209.2569102812404</v>
+        <v>278.0822727989905</v>
       </c>
       <c r="O11" t="n">
-        <v>209.2569102812404</v>
+        <v>278.0822727989905</v>
       </c>
       <c r="P11" t="n">
         <v>278.0822727989905</v>
@@ -5065,16 +5065,16 @@
         <v>278.0822727989905</v>
       </c>
       <c r="R11" t="n">
-        <v>278.0822727989905</v>
+        <v>207.8594766376293</v>
       </c>
       <c r="S11" t="n">
-        <v>278.0822727989905</v>
+        <v>137.636680476268</v>
       </c>
       <c r="T11" t="n">
-        <v>207.8594766376293</v>
+        <v>137.636680476268</v>
       </c>
       <c r="U11" t="n">
-        <v>207.8594766376293</v>
+        <v>137.636680476268</v>
       </c>
       <c r="V11" t="n">
         <v>137.636680476268</v>
@@ -5086,7 +5086,7 @@
         <v>137.636680476268</v>
       </c>
       <c r="Y11" t="n">
-        <v>67.41388431490675</v>
+        <v>137.636680476268</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>278.0822727989905</v>
+        <v>146.0072377787023</v>
       </c>
       <c r="C12" t="n">
-        <v>278.0822727989905</v>
+        <v>146.0072377787023</v>
       </c>
       <c r="D12" t="n">
-        <v>278.0822727989905</v>
+        <v>146.0072377787023</v>
       </c>
       <c r="E12" t="n">
-        <v>278.0822727989905</v>
+        <v>146.0072377787023</v>
       </c>
       <c r="F12" t="n">
-        <v>207.8594766376293</v>
+        <v>146.0072377787023</v>
       </c>
       <c r="G12" t="n">
-        <v>137.636680476268</v>
+        <v>75.78444161734106</v>
       </c>
       <c r="H12" t="n">
-        <v>67.41388431490675</v>
+        <v>75.78444161734106</v>
       </c>
       <c r="I12" t="n">
         <v>5.561645455979811</v>
@@ -5126,46 +5126,46 @@
         <v>5.561645455979811</v>
       </c>
       <c r="L12" t="n">
+        <v>5.561645455979811</v>
+      </c>
+      <c r="M12" t="n">
         <v>74.38700797372996</v>
-      </c>
-      <c r="M12" t="n">
-        <v>143.2123704914801</v>
       </c>
       <c r="N12" t="n">
         <v>143.2123704914801</v>
       </c>
       <c r="O12" t="n">
-        <v>209.2569102812404</v>
+        <v>212.0377330092302</v>
       </c>
       <c r="P12" t="n">
-        <v>209.2569102812404</v>
+        <v>278.0822727989905</v>
       </c>
       <c r="Q12" t="n">
         <v>278.0822727989905</v>
       </c>
       <c r="R12" t="n">
-        <v>278.0822727989905</v>
+        <v>207.8594766376293</v>
       </c>
       <c r="S12" t="n">
-        <v>278.0822727989905</v>
+        <v>207.8594766376293</v>
       </c>
       <c r="T12" t="n">
-        <v>278.0822727989905</v>
+        <v>207.8594766376293</v>
       </c>
       <c r="U12" t="n">
-        <v>278.0822727989905</v>
+        <v>207.8594766376293</v>
       </c>
       <c r="V12" t="n">
-        <v>278.0822727989905</v>
+        <v>207.8594766376293</v>
       </c>
       <c r="W12" t="n">
-        <v>278.0822727989905</v>
+        <v>207.8594766376293</v>
       </c>
       <c r="X12" t="n">
-        <v>278.0822727989905</v>
+        <v>146.0072377787023</v>
       </c>
       <c r="Y12" t="n">
-        <v>278.0822727989905</v>
+        <v>146.0072377787023</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>196.5486919238271</v>
+        <v>196.548691923827</v>
       </c>
       <c r="C13" t="n">
-        <v>196.5486919238271</v>
+        <v>196.548691923827</v>
       </c>
       <c r="D13" t="n">
-        <v>196.5486919238271</v>
+        <v>126.3258957624657</v>
       </c>
       <c r="E13" t="n">
-        <v>196.5486919238271</v>
+        <v>126.3258957624657</v>
       </c>
       <c r="F13" t="n">
-        <v>196.5486919238271</v>
+        <v>75.78444161734106</v>
       </c>
       <c r="G13" t="n">
-        <v>196.5486919238271</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="H13" t="n">
-        <v>146.0072377787023</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="I13" t="n">
-        <v>75.78444161734106</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="J13" t="n">
         <v>5.561645455979811</v>
@@ -5205,46 +5205,46 @@
         <v>5.561645455979811</v>
       </c>
       <c r="L13" t="n">
-        <v>44.70556692475918</v>
+        <v>44.70556692475917</v>
       </c>
       <c r="M13" t="n">
-        <v>95.72340157804776</v>
+        <v>95.72340157804773</v>
       </c>
       <c r="N13" t="n">
-        <v>151.2440486945505</v>
+        <v>151.2440486945504</v>
       </c>
       <c r="O13" t="n">
         <v>187.4131217905161</v>
       </c>
       <c r="P13" t="n">
-        <v>196.5486919238271</v>
+        <v>196.548691923827</v>
       </c>
       <c r="Q13" t="n">
-        <v>196.5486919238271</v>
+        <v>196.548691923827</v>
       </c>
       <c r="R13" t="n">
-        <v>196.5486919238271</v>
+        <v>196.548691923827</v>
       </c>
       <c r="S13" t="n">
-        <v>196.5486919238271</v>
+        <v>196.548691923827</v>
       </c>
       <c r="T13" t="n">
-        <v>196.5486919238271</v>
+        <v>196.548691923827</v>
       </c>
       <c r="U13" t="n">
-        <v>196.5486919238271</v>
+        <v>196.548691923827</v>
       </c>
       <c r="V13" t="n">
-        <v>196.5486919238271</v>
+        <v>196.548691923827</v>
       </c>
       <c r="W13" t="n">
-        <v>196.5486919238271</v>
+        <v>196.548691923827</v>
       </c>
       <c r="X13" t="n">
-        <v>196.5486919238271</v>
+        <v>196.548691923827</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.5486919238271</v>
+        <v>196.548691923827</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.561645455979811</v>
+        <v>146.0072377787023</v>
       </c>
       <c r="C14" t="n">
-        <v>5.561645455979811</v>
+        <v>75.78444161734106</v>
       </c>
       <c r="D14" t="n">
         <v>5.561645455979811</v>
@@ -5284,16 +5284,16 @@
         <v>74.38700797372996</v>
       </c>
       <c r="L14" t="n">
-        <v>74.38700797372996</v>
+        <v>143.2123704914801</v>
       </c>
       <c r="M14" t="n">
-        <v>140.4315477634902</v>
+        <v>212.0377330092302</v>
       </c>
       <c r="N14" t="n">
-        <v>140.4315477634902</v>
+        <v>278.0822727989905</v>
       </c>
       <c r="O14" t="n">
-        <v>209.2569102812404</v>
+        <v>278.0822727989905</v>
       </c>
       <c r="P14" t="n">
         <v>278.0822727989905</v>
@@ -5302,28 +5302,28 @@
         <v>278.0822727989905</v>
       </c>
       <c r="R14" t="n">
-        <v>278.0822727989905</v>
+        <v>207.8594766376293</v>
       </c>
       <c r="S14" t="n">
-        <v>216.2300339400635</v>
+        <v>207.8594766376293</v>
       </c>
       <c r="T14" t="n">
+        <v>207.8594766376293</v>
+      </c>
+      <c r="U14" t="n">
+        <v>207.8594766376293</v>
+      </c>
+      <c r="V14" t="n">
+        <v>207.8594766376293</v>
+      </c>
+      <c r="W14" t="n">
+        <v>207.8594766376293</v>
+      </c>
+      <c r="X14" t="n">
+        <v>207.8594766376293</v>
+      </c>
+      <c r="Y14" t="n">
         <v>146.0072377787023</v>
-      </c>
-      <c r="U14" t="n">
-        <v>75.78444161734106</v>
-      </c>
-      <c r="V14" t="n">
-        <v>5.561645455979811</v>
-      </c>
-      <c r="W14" t="n">
-        <v>5.561645455979811</v>
-      </c>
-      <c r="X14" t="n">
-        <v>5.561645455979811</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>5.561645455979811</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.561645455979811</v>
+        <v>67.41388431490675</v>
       </c>
       <c r="C15" t="n">
-        <v>5.561645455979811</v>
+        <v>67.41388431490675</v>
       </c>
       <c r="D15" t="n">
         <v>5.561645455979811</v>
@@ -5360,22 +5360,22 @@
         <v>5.561645455979811</v>
       </c>
       <c r="K15" t="n">
+        <v>5.561645455979811</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.561645455979811</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5.561645455979811</v>
+      </c>
+      <c r="N15" t="n">
         <v>74.38700797372996</v>
       </c>
-      <c r="L15" t="n">
-        <v>74.38700797372996</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>143.2123704914801</v>
       </c>
-      <c r="N15" t="n">
-        <v>209.2569102812404</v>
-      </c>
-      <c r="O15" t="n">
-        <v>278.0822727989905</v>
-      </c>
       <c r="P15" t="n">
-        <v>278.0822727989905</v>
+        <v>212.0377330092302</v>
       </c>
       <c r="Q15" t="n">
         <v>278.0822727989905</v>
@@ -5384,25 +5384,25 @@
         <v>207.8594766376293</v>
       </c>
       <c r="S15" t="n">
+        <v>207.8594766376293</v>
+      </c>
+      <c r="T15" t="n">
         <v>137.636680476268</v>
       </c>
-      <c r="T15" t="n">
-        <v>67.41388431490675</v>
-      </c>
       <c r="U15" t="n">
-        <v>5.561645455979811</v>
+        <v>137.636680476268</v>
       </c>
       <c r="V15" t="n">
-        <v>5.561645455979811</v>
+        <v>137.636680476268</v>
       </c>
       <c r="W15" t="n">
-        <v>5.561645455979811</v>
+        <v>137.636680476268</v>
       </c>
       <c r="X15" t="n">
-        <v>5.561645455979811</v>
+        <v>137.636680476268</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.561645455979811</v>
+        <v>137.636680476268</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>196.5486919238267</v>
+        <v>126.3258957624658</v>
       </c>
       <c r="C16" t="n">
-        <v>196.5486919238267</v>
+        <v>126.3258957624658</v>
       </c>
       <c r="D16" t="n">
-        <v>196.5486919238267</v>
+        <v>126.3258957624658</v>
       </c>
       <c r="E16" t="n">
-        <v>196.5486919238267</v>
+        <v>126.3258957624658</v>
       </c>
       <c r="F16" t="n">
-        <v>196.5486919238267</v>
+        <v>56.10309960110459</v>
       </c>
       <c r="G16" t="n">
-        <v>196.5486919238267</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="H16" t="n">
-        <v>156.4316847193795</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="I16" t="n">
-        <v>86.20888855801824</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="J16" t="n">
-        <v>15.986092396657</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="K16" t="n">
         <v>5.561645455979811</v>
       </c>
       <c r="L16" t="n">
-        <v>44.7055669247591</v>
+        <v>44.70556692475918</v>
       </c>
       <c r="M16" t="n">
-        <v>95.72340157804759</v>
+        <v>95.72340157804776</v>
       </c>
       <c r="N16" t="n">
-        <v>151.2440486945502</v>
+        <v>151.2440486945505</v>
       </c>
       <c r="O16" t="n">
-        <v>187.4131217905158</v>
+        <v>187.4131217905161</v>
       </c>
       <c r="P16" t="n">
-        <v>196.5486919238267</v>
+        <v>196.5486919238271</v>
       </c>
       <c r="Q16" t="n">
-        <v>196.5486919238267</v>
+        <v>126.3258957624658</v>
       </c>
       <c r="R16" t="n">
-        <v>196.5486919238267</v>
+        <v>126.3258957624658</v>
       </c>
       <c r="S16" t="n">
-        <v>196.5486919238267</v>
+        <v>126.3258957624658</v>
       </c>
       <c r="T16" t="n">
-        <v>196.5486919238267</v>
+        <v>126.3258957624658</v>
       </c>
       <c r="U16" t="n">
-        <v>196.5486919238267</v>
+        <v>126.3258957624658</v>
       </c>
       <c r="V16" t="n">
-        <v>196.5486919238267</v>
+        <v>126.3258957624658</v>
       </c>
       <c r="W16" t="n">
-        <v>196.5486919238267</v>
+        <v>126.3258957624658</v>
       </c>
       <c r="X16" t="n">
-        <v>196.5486919238267</v>
+        <v>126.3258957624658</v>
       </c>
       <c r="Y16" t="n">
-        <v>196.5486919238267</v>
+        <v>126.3258957624658</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>269.318870644783</v>
+        <v>139.1982147555644</v>
       </c>
       <c r="C18" t="n">
-        <v>269.318870644783</v>
+        <v>139.1982147555644</v>
       </c>
       <c r="D18" t="n">
         <v>139.1982147555644</v>
@@ -5597,16 +5597,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>881.7013798355547</v>
       </c>
       <c r="S18" t="n">
-        <v>809.4535647333378</v>
+        <v>881.7013798355547</v>
       </c>
       <c r="T18" t="n">
-        <v>626.0807238641366</v>
+        <v>881.7013798355547</v>
       </c>
       <c r="U18" t="n">
-        <v>416.6708593725585</v>
+        <v>672.2915153439765</v>
       </c>
       <c r="V18" t="n">
-        <v>416.6708593725585</v>
+        <v>517.1825061819857</v>
       </c>
       <c r="W18" t="n">
-        <v>416.6708593725585</v>
+        <v>517.1825061819857</v>
       </c>
       <c r="X18" t="n">
-        <v>416.6708593725585</v>
+        <v>328.1447597484856</v>
       </c>
       <c r="Y18" t="n">
-        <v>416.6708593725585</v>
+        <v>139.1982147555644</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.7866755683564</v>
+        <v>243.3160076325746</v>
       </c>
       <c r="C19" t="n">
-        <v>740.0222909882744</v>
+        <v>93.1935784767004</v>
       </c>
       <c r="D19" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>785.7757760679567</v>
+        <v>65.03462818989502</v>
       </c>
       <c r="M19" t="n">
-        <v>843.4031743321482</v>
+        <v>122.6620264540865</v>
       </c>
       <c r="N19" t="n">
-        <v>905.5333850595538</v>
+        <v>184.7922371814921</v>
       </c>
       <c r="O19" t="n">
-        <v>948.3120217664224</v>
+        <v>227.5708738883607</v>
       </c>
       <c r="P19" t="n">
-        <v>964.0571555106362</v>
+        <v>243.3160076325746</v>
       </c>
       <c r="Q19" t="n">
-        <v>964.0571555106362</v>
+        <v>243.3160076325746</v>
       </c>
       <c r="R19" t="n">
-        <v>803.7866755683564</v>
+        <v>243.3160076325746</v>
       </c>
       <c r="S19" t="n">
-        <v>803.7866755683564</v>
+        <v>243.3160076325746</v>
       </c>
       <c r="T19" t="n">
-        <v>803.7866755683564</v>
+        <v>243.3160076325746</v>
       </c>
       <c r="U19" t="n">
-        <v>803.7866755683564</v>
+        <v>243.3160076325746</v>
       </c>
       <c r="V19" t="n">
-        <v>803.7866755683564</v>
+        <v>243.3160076325746</v>
       </c>
       <c r="W19" t="n">
-        <v>803.7866755683564</v>
+        <v>243.3160076325746</v>
       </c>
       <c r="X19" t="n">
-        <v>803.7866755683564</v>
+        <v>243.3160076325746</v>
       </c>
       <c r="Y19" t="n">
-        <v>803.7866755683564</v>
+        <v>243.3160076325746</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>831.4879618673663</v>
       </c>
       <c r="S20" t="n">
-        <v>712.7142856204522</v>
+        <v>639.1703322189492</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>432.6347429969098</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>432.6347429969098</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>246.5665815504747</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>90.92730604138043</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>90.92730604138043</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>90.92730604138043</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>90.92730604138043</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>90.92730604138043</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5834,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>881.7013798355547</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>881.7013798355547</v>
+        <v>809.4535647333378</v>
       </c>
       <c r="T21" t="n">
-        <v>698.3285389663536</v>
+        <v>809.4535647333378</v>
       </c>
       <c r="U21" t="n">
-        <v>698.3285389663536</v>
+        <v>660.0808469595917</v>
       </c>
       <c r="V21" t="n">
-        <v>481.9901845066436</v>
+        <v>443.7424924998817</v>
       </c>
       <c r="W21" t="n">
-        <v>246.5665815504747</v>
+        <v>208.3188895437128</v>
       </c>
       <c r="X21" t="n">
-        <v>246.5665815504747</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>246.5665815504747</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>785.7757760679567</v>
+        <v>65.03462818989502</v>
       </c>
       <c r="M22" t="n">
-        <v>843.4031743321482</v>
+        <v>122.6620264540865</v>
       </c>
       <c r="N22" t="n">
-        <v>905.5333850595538</v>
+        <v>184.7922371814921</v>
       </c>
       <c r="O22" t="n">
-        <v>948.3120217664224</v>
+        <v>227.5708738883607</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>243.3160076325746</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>243.3160076325746</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>243.3160076325746</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>243.3160076325746</v>
       </c>
       <c r="T22" t="n">
-        <v>942.0011163597718</v>
+        <v>243.3160076325746</v>
       </c>
       <c r="U22" t="n">
-        <v>942.0011163597718</v>
+        <v>243.3160076325746</v>
       </c>
       <c r="V22" t="n">
-        <v>942.0011163597718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>942.0011163597718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>942.0011163597718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>740.0222909882744</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>908.664755977517</v>
+        <v>421.806839230787</v>
       </c>
       <c r="C23" t="n">
-        <v>908.664755977517</v>
+        <v>421.806839230787</v>
       </c>
       <c r="D23" t="n">
-        <v>637.3508356703323</v>
+        <v>150.4929189236024</v>
       </c>
       <c r="E23" t="n">
-        <v>338.5143613716539</v>
+        <v>150.4929189236024</v>
       </c>
       <c r="F23" t="n">
-        <v>24.84278856619254</v>
+        <v>150.4929189236024</v>
       </c>
       <c r="G23" t="n">
-        <v>24.84278856619254</v>
+        <v>150.4929189236024</v>
       </c>
       <c r="H23" t="n">
-        <v>24.84278856619254</v>
+        <v>150.4929189236024</v>
       </c>
       <c r="I23" t="n">
         <v>24.84278856619254</v>
@@ -5992,19 +5992,19 @@
         <v>98.23443001653062</v>
       </c>
       <c r="K23" t="n">
-        <v>286.4708738388576</v>
+        <v>201.249435927453</v>
       </c>
       <c r="L23" t="n">
-        <v>505.1236277157791</v>
+        <v>381.3252875121116</v>
       </c>
       <c r="M23" t="n">
-        <v>722.0992549786832</v>
+        <v>598.3009147750157</v>
       </c>
       <c r="N23" t="n">
-        <v>927.9537771859225</v>
+        <v>804.155436982255</v>
       </c>
       <c r="O23" t="n">
-        <v>1077.148727328571</v>
+        <v>991.927289417166</v>
       </c>
       <c r="P23" t="n">
         <v>1166.808782620622</v>
@@ -6019,22 +6019,22 @@
         <v>1177.70825919389</v>
       </c>
       <c r="T23" t="n">
-        <v>1177.70825919389</v>
+        <v>1119.364647823444</v>
       </c>
       <c r="U23" t="n">
-        <v>1177.70825919389</v>
+        <v>952.4319282363059</v>
       </c>
       <c r="V23" t="n">
-        <v>1177.70825919389</v>
+        <v>708.3208191923011</v>
       </c>
       <c r="W23" t="n">
-        <v>1177.70825919389</v>
+        <v>708.3208191923011</v>
       </c>
       <c r="X23" t="n">
-        <v>1177.70825919389</v>
+        <v>421.806839230787</v>
       </c>
       <c r="Y23" t="n">
-        <v>908.664755977517</v>
+        <v>421.806839230787</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>325.7567511811437</v>
+        <v>246.6123476153288</v>
       </c>
       <c r="C24" t="n">
-        <v>238.2555001995825</v>
+        <v>159.1110966337676</v>
       </c>
       <c r="D24" t="n">
-        <v>238.2555001995825</v>
+        <v>97.1284652720822</v>
       </c>
       <c r="E24" t="n">
-        <v>165.9698234936928</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="F24" t="n">
-        <v>106.3870438201437</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="G24" t="n">
-        <v>54.60799670232502</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="H24" t="n">
-        <v>28.1906394094702</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="I24" t="n">
         <v>24.84278856619254</v>
@@ -6077,13 +6077,13 @@
         <v>380.1634544923791</v>
       </c>
       <c r="M24" t="n">
-        <v>687.5929629990117</v>
+        <v>433.9184695923518</v>
       </c>
       <c r="N24" t="n">
-        <v>995.0224715056443</v>
+        <v>741.3479780989844</v>
       </c>
       <c r="O24" t="n">
-        <v>1172.744869796298</v>
+        <v>990.1013921829467</v>
       </c>
       <c r="P24" t="n">
         <v>1172.744869796298</v>
@@ -6113,7 +6113,7 @@
         <v>448.5638243398203</v>
       </c>
       <c r="Y24" t="n">
-        <v>327.7553038744322</v>
+        <v>327.8759063358309</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>684.1843946990787</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="C25" t="n">
-        <v>684.1843946990787</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="D25" t="n">
-        <v>621.0195335863087</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="E25" t="n">
-        <v>621.0195335863087</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="F25" t="n">
-        <v>621.0195335863087</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="G25" t="n">
-        <v>621.0195335863087</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="H25" t="n">
-        <v>621.0195335863087</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="I25" t="n">
-        <v>621.0195335863087</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="J25" t="n">
-        <v>621.0195335863087</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="K25" t="n">
-        <v>684.1941745900892</v>
+        <v>88.01742956997299</v>
       </c>
       <c r="L25" t="n">
-        <v>796.7297375092066</v>
+        <v>200.5529924890905</v>
       </c>
       <c r="M25" t="n">
-        <v>921.1392136128334</v>
+        <v>324.9624685927171</v>
       </c>
       <c r="N25" t="n">
-        <v>1050.051502179674</v>
+        <v>453.8747571595579</v>
       </c>
       <c r="O25" t="n">
-        <v>1159.612216725978</v>
+        <v>563.4354717058617</v>
       </c>
       <c r="P25" t="n">
-        <v>1242.139428309627</v>
+        <v>645.9626832895108</v>
       </c>
       <c r="Q25" t="n">
-        <v>1242.139428309627</v>
+        <v>645.9626832895108</v>
       </c>
       <c r="R25" t="n">
-        <v>1242.139428309627</v>
+        <v>645.9626832895108</v>
       </c>
       <c r="S25" t="n">
-        <v>1242.139428309627</v>
+        <v>645.9626832895108</v>
       </c>
       <c r="T25" t="n">
-        <v>1098.843136479615</v>
+        <v>645.9626832895108</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.843136479615</v>
+        <v>645.9626832895108</v>
       </c>
       <c r="V25" t="n">
-        <v>931.1104265732944</v>
+        <v>596.883440276677</v>
       </c>
       <c r="W25" t="n">
-        <v>728.6450348358997</v>
+        <v>394.4180485392822</v>
       </c>
       <c r="X25" t="n">
-        <v>728.6450348358997</v>
+        <v>253.3802759408306</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.6450348358997</v>
+        <v>119.5394750968664</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>127.2330962488737</v>
+        <v>61.67750819928938</v>
       </c>
       <c r="C26" t="n">
-        <v>127.2330962488737</v>
+        <v>61.67750819928938</v>
       </c>
       <c r="D26" t="n">
-        <v>127.2330962488737</v>
+        <v>61.67750819928938</v>
       </c>
       <c r="E26" t="n">
-        <v>127.2330962488737</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="F26" t="n">
-        <v>127.2330962488737</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="G26" t="n">
         <v>24.84278856619254</v>
@@ -6226,19 +6226,19 @@
         <v>24.84278856619254</v>
       </c>
       <c r="J26" t="n">
-        <v>98.23443001653062</v>
+        <v>98.23443001653064</v>
       </c>
       <c r="K26" t="n">
-        <v>201.249435927453</v>
+        <v>286.4708738388575</v>
       </c>
       <c r="L26" t="n">
-        <v>466.5467254235162</v>
+        <v>466.5467254235161</v>
       </c>
       <c r="M26" t="n">
-        <v>683.5223526864204</v>
+        <v>683.5223526864203</v>
       </c>
       <c r="N26" t="n">
-        <v>889.3768748936598</v>
+        <v>889.3768748936595</v>
       </c>
       <c r="O26" t="n">
         <v>1077.148727328571</v>
@@ -6253,25 +6253,25 @@
         <v>1242.139428309627</v>
       </c>
       <c r="S26" t="n">
-        <v>1242.139428309627</v>
+        <v>1117.959823188743</v>
       </c>
       <c r="T26" t="n">
-        <v>1103.741863615121</v>
+        <v>1117.959823188743</v>
       </c>
       <c r="U26" t="n">
-        <v>936.8091440279829</v>
+        <v>951.0271036016052</v>
       </c>
       <c r="V26" t="n">
-        <v>692.6980349839781</v>
+        <v>951.0271036016052</v>
       </c>
       <c r="W26" t="n">
-        <v>426.8811580134297</v>
+        <v>951.0271036016052</v>
       </c>
       <c r="X26" t="n">
-        <v>426.8811580134297</v>
+        <v>664.5131236400912</v>
       </c>
       <c r="Y26" t="n">
-        <v>426.8811580134297</v>
+        <v>361.3255699638453</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>361.3220252499743</v>
+        <v>246.4917451539301</v>
       </c>
       <c r="C27" t="n">
-        <v>273.8207742684131</v>
+        <v>158.990494172369</v>
       </c>
       <c r="D27" t="n">
-        <v>211.8381429067277</v>
+        <v>97.00786281068358</v>
       </c>
       <c r="E27" t="n">
-        <v>139.552466200838</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="F27" t="n">
-        <v>79.96968652728884</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="G27" t="n">
-        <v>28.1906394094702</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="H27" t="n">
-        <v>28.1906394094702</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="I27" t="n">
         <v>24.84278856619254</v>
@@ -6308,22 +6308,22 @@
         <v>24.84278856619254</v>
       </c>
       <c r="K27" t="n">
-        <v>150.2003486240299</v>
+        <v>148.5638913440501</v>
       </c>
       <c r="L27" t="n">
-        <v>150.2003486240299</v>
+        <v>378.5269972123992</v>
       </c>
       <c r="M27" t="n">
-        <v>457.6298571306626</v>
+        <v>685.9565057190318</v>
       </c>
       <c r="N27" t="n">
-        <v>741.3479780989844</v>
+        <v>993.3860142256644</v>
       </c>
       <c r="O27" t="n">
-        <v>990.1013921829467</v>
+        <v>1242.139428309627</v>
       </c>
       <c r="P27" t="n">
-        <v>1172.744869796298</v>
+        <v>1242.139428309627</v>
       </c>
       <c r="Q27" t="n">
         <v>1242.139428309627</v>
@@ -6341,16 +6341,16 @@
         <v>884.9494546065998</v>
       </c>
       <c r="V27" t="n">
-        <v>851.5794047704672</v>
+        <v>736.749124674423</v>
       </c>
       <c r="W27" t="n">
-        <v>684.2938263418315</v>
+        <v>569.4635462457873</v>
       </c>
       <c r="X27" t="n">
-        <v>563.3941044358645</v>
+        <v>448.5638243398203</v>
       </c>
       <c r="Y27" t="n">
-        <v>442.5855839704765</v>
+        <v>327.7553038744323</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.15452768750725</v>
+        <v>107.3971282435855</v>
       </c>
       <c r="C28" t="n">
-        <v>93.15452768750725</v>
+        <v>25.41272361524449</v>
       </c>
       <c r="D28" t="n">
-        <v>93.15452768750725</v>
+        <v>25.41272361524449</v>
       </c>
       <c r="E28" t="n">
-        <v>32.19321240468</v>
+        <v>25.41272361524449</v>
       </c>
       <c r="F28" t="n">
-        <v>32.19321240468</v>
+        <v>25.41272361524449</v>
       </c>
       <c r="G28" t="n">
-        <v>32.19321240468</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="H28" t="n">
-        <v>32.19321240468</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="I28" t="n">
-        <v>32.19321240468</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="J28" t="n">
         <v>24.84278856619254</v>
       </c>
       <c r="K28" t="n">
-        <v>88.01742956997299</v>
+        <v>88.017429569973</v>
       </c>
       <c r="L28" t="n">
         <v>200.5529924890905</v>
       </c>
       <c r="M28" t="n">
-        <v>324.9624685927171</v>
+        <v>324.9624685927172</v>
       </c>
       <c r="N28" t="n">
-        <v>453.8747571595579</v>
+        <v>453.874757159558</v>
       </c>
       <c r="O28" t="n">
-        <v>563.4354717058617</v>
+        <v>563.4354717058618</v>
       </c>
       <c r="P28" t="n">
-        <v>645.9626832895108</v>
+        <v>645.9626832895109</v>
       </c>
       <c r="Q28" t="n">
-        <v>645.8820946681732</v>
+        <v>645.9626832895109</v>
       </c>
       <c r="R28" t="n">
-        <v>645.8820946681732</v>
+        <v>645.9626832895109</v>
       </c>
       <c r="S28" t="n">
-        <v>506.5544810112013</v>
+        <v>645.9626832895109</v>
       </c>
       <c r="T28" t="n">
-        <v>506.5544810112013</v>
+        <v>645.9626832895109</v>
       </c>
       <c r="U28" t="n">
-        <v>506.5544810112013</v>
+        <v>443.7033208249445</v>
       </c>
       <c r="V28" t="n">
-        <v>368.033101129923</v>
+        <v>443.7033208249445</v>
       </c>
       <c r="W28" t="n">
-        <v>368.033101129923</v>
+        <v>241.2379290875498</v>
       </c>
       <c r="X28" t="n">
-        <v>226.9953285314715</v>
+        <v>241.2379290875498</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.15452768750725</v>
+        <v>107.3971282435855</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>323.6792628648709</v>
+        <v>788.6927287609751</v>
       </c>
       <c r="C29" t="n">
-        <v>323.6792628648709</v>
+        <v>788.6927287609751</v>
       </c>
       <c r="D29" t="n">
-        <v>323.6792628648709</v>
+        <v>788.6927287609751</v>
       </c>
       <c r="E29" t="n">
-        <v>24.84278856619254</v>
+        <v>788.6927287609751</v>
       </c>
       <c r="F29" t="n">
-        <v>24.84278856619254</v>
+        <v>475.0211559555138</v>
       </c>
       <c r="G29" t="n">
-        <v>24.84278856619254</v>
+        <v>280.7948507876037</v>
       </c>
       <c r="H29" t="n">
         <v>24.84278856619254</v>
@@ -6463,25 +6463,25 @@
         <v>24.84278856619254</v>
       </c>
       <c r="J29" t="n">
-        <v>98.23443001653071</v>
+        <v>98.23443001653062</v>
       </c>
       <c r="K29" t="n">
-        <v>286.4708738388576</v>
+        <v>201.249435927453</v>
       </c>
       <c r="L29" t="n">
-        <v>466.5467254235162</v>
+        <v>381.3252875121116</v>
       </c>
       <c r="M29" t="n">
-        <v>683.5223526864204</v>
+        <v>598.3009147750157</v>
       </c>
       <c r="N29" t="n">
-        <v>889.3768748936598</v>
+        <v>889.3768748936595</v>
       </c>
       <c r="O29" t="n">
-        <v>1038.571825036308</v>
+        <v>1123.793262947712</v>
       </c>
       <c r="P29" t="n">
-        <v>1166.808782620622</v>
+        <v>1213.453318239763</v>
       </c>
       <c r="Q29" t="n">
         <v>1242.139428309627</v>
@@ -6490,25 +6490,25 @@
         <v>1242.139428309627</v>
       </c>
       <c r="S29" t="n">
-        <v>1117.959823188743</v>
+        <v>1242.139428309627</v>
       </c>
       <c r="T29" t="n">
-        <v>979.5622584942366</v>
+        <v>1242.139428309627</v>
       </c>
       <c r="U29" t="n">
-        <v>812.629538907099</v>
+        <v>1075.206708722489</v>
       </c>
       <c r="V29" t="n">
-        <v>626.8668165411166</v>
+        <v>1075.206708722489</v>
       </c>
       <c r="W29" t="n">
-        <v>626.8668165411166</v>
+        <v>1075.206708722489</v>
       </c>
       <c r="X29" t="n">
-        <v>626.8668165411166</v>
+        <v>788.6927287609751</v>
       </c>
       <c r="Y29" t="n">
-        <v>323.6792628648709</v>
+        <v>788.6927287609751</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>246.4917451539305</v>
+        <v>384.3915316995514</v>
       </c>
       <c r="C30" t="n">
-        <v>158.9904941723694</v>
+        <v>296.8902807179903</v>
       </c>
       <c r="D30" t="n">
-        <v>158.9904941723694</v>
+        <v>234.9076493563048</v>
       </c>
       <c r="E30" t="n">
-        <v>158.9904941723694</v>
+        <v>162.6219726504152</v>
       </c>
       <c r="F30" t="n">
-        <v>99.40771449882034</v>
+        <v>103.039192976866</v>
       </c>
       <c r="G30" t="n">
-        <v>51.26014585904727</v>
+        <v>51.26014585904736</v>
       </c>
       <c r="H30" t="n">
         <v>24.84278856619254</v>
@@ -6545,49 +6545,49 @@
         <v>24.84278856619254</v>
       </c>
       <c r="K30" t="n">
-        <v>150.2003486240299</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="L30" t="n">
-        <v>380.1634544923791</v>
+        <v>254.8058944345417</v>
       </c>
       <c r="M30" t="n">
-        <v>687.5929629990117</v>
+        <v>562.2354029411742</v>
       </c>
       <c r="N30" t="n">
-        <v>995.0224715056443</v>
+        <v>810.7425366123136</v>
       </c>
       <c r="O30" t="n">
-        <v>995.0224715056443</v>
+        <v>1059.495950696276</v>
       </c>
       <c r="P30" t="n">
-        <v>1177.665949118995</v>
+        <v>1242.139428309627</v>
       </c>
       <c r="Q30" t="n">
         <v>1242.139428309627</v>
       </c>
       <c r="R30" t="n">
-        <v>1227.921677162078</v>
+        <v>1242.139428309627</v>
       </c>
       <c r="S30" t="n">
-        <v>1141.456110912313</v>
+        <v>1242.139428309627</v>
       </c>
       <c r="T30" t="n">
-        <v>1026.221294570645</v>
+        <v>1164.121081116266</v>
       </c>
       <c r="U30" t="n">
-        <v>884.9494546066001</v>
+        <v>1022.849241152221</v>
       </c>
       <c r="V30" t="n">
-        <v>736.7491246744232</v>
+        <v>874.6489112200444</v>
       </c>
       <c r="W30" t="n">
-        <v>569.4635462457875</v>
+        <v>707.3633327914087</v>
       </c>
       <c r="X30" t="n">
-        <v>448.5638243398206</v>
+        <v>586.4636108854417</v>
       </c>
       <c r="Y30" t="n">
-        <v>327.7553038744326</v>
+        <v>465.6550904200536</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>313.7483183540469</v>
+        <v>94.91169201133204</v>
       </c>
       <c r="C31" t="n">
-        <v>231.763913725706</v>
+        <v>94.91169201133204</v>
       </c>
       <c r="D31" t="n">
-        <v>231.763913725706</v>
+        <v>94.91169201133204</v>
       </c>
       <c r="E31" t="n">
-        <v>231.763913725706</v>
+        <v>94.91169201133204</v>
       </c>
       <c r="F31" t="n">
-        <v>171.8257445273616</v>
+        <v>94.91169201133204</v>
       </c>
       <c r="G31" t="n">
-        <v>171.8257445273616</v>
+        <v>94.91169201133204</v>
       </c>
       <c r="H31" t="n">
-        <v>94.91169201133195</v>
+        <v>94.91169201133204</v>
       </c>
       <c r="I31" t="n">
         <v>24.84278856619254</v>
@@ -6624,49 +6624,49 @@
         <v>24.84278856619254</v>
       </c>
       <c r="K31" t="n">
-        <v>88.01742956997307</v>
+        <v>88.01742956997299</v>
       </c>
       <c r="L31" t="n">
-        <v>200.5529924890906</v>
+        <v>200.5529924890905</v>
       </c>
       <c r="M31" t="n">
-        <v>324.9624685927174</v>
+        <v>324.9624685927171</v>
       </c>
       <c r="N31" t="n">
-        <v>453.8747571595583</v>
+        <v>453.8747571595579</v>
       </c>
       <c r="O31" t="n">
-        <v>563.4354717058621</v>
+        <v>563.4354717058617</v>
       </c>
       <c r="P31" t="n">
-        <v>645.9626832895112</v>
+        <v>645.9626832895108</v>
       </c>
       <c r="Q31" t="n">
-        <v>645.8820946681737</v>
+        <v>645.9626832895108</v>
       </c>
       <c r="R31" t="n">
-        <v>645.8820946681737</v>
+        <v>645.9626832895108</v>
       </c>
       <c r="S31" t="n">
-        <v>598.0823827825097</v>
+        <v>645.9626832895108</v>
       </c>
       <c r="T31" t="n">
-        <v>454.7860909524983</v>
+        <v>645.9626832895108</v>
       </c>
       <c r="U31" t="n">
-        <v>454.7860909524983</v>
+        <v>645.9626832895108</v>
       </c>
       <c r="V31" t="n">
-        <v>454.7860909524983</v>
+        <v>645.9626832895108</v>
       </c>
       <c r="W31" t="n">
-        <v>454.7860909524983</v>
+        <v>464.4869519844216</v>
       </c>
       <c r="X31" t="n">
-        <v>313.7483183540469</v>
+        <v>323.4491793859701</v>
       </c>
       <c r="Y31" t="n">
-        <v>313.7483183540469</v>
+        <v>189.6083785420059</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>495.5487276145623</v>
+        <v>904.7901455552486</v>
       </c>
       <c r="C32" t="n">
-        <v>495.5487276145623</v>
+        <v>904.7901455552486</v>
       </c>
       <c r="D32" t="n">
-        <v>495.5487276145623</v>
+        <v>904.7901455552486</v>
       </c>
       <c r="E32" t="n">
-        <v>495.5487276145623</v>
+        <v>904.7901455552486</v>
       </c>
       <c r="F32" t="n">
-        <v>495.5487276145623</v>
+        <v>591.1185727497873</v>
       </c>
       <c r="G32" t="n">
         <v>277.446999944326</v>
@@ -6700,19 +6700,19 @@
         <v>24.84278856619254</v>
       </c>
       <c r="J32" t="n">
-        <v>101.5156586280271</v>
+        <v>41.74620856289997</v>
       </c>
       <c r="K32" t="n">
-        <v>204.5306645389494</v>
+        <v>144.7612144738223</v>
       </c>
       <c r="L32" t="n">
-        <v>413.339732581382</v>
+        <v>324.8370660584809</v>
       </c>
       <c r="M32" t="n">
-        <v>718.818026367187</v>
+        <v>541.812693321385</v>
       </c>
       <c r="N32" t="n">
-        <v>924.6725485744263</v>
+        <v>836.1698820515253</v>
       </c>
       <c r="O32" t="n">
         <v>1073.867498717074</v>
@@ -6724,28 +6724,28 @@
         <v>1242.139428309627</v>
       </c>
       <c r="R32" t="n">
-        <v>1242.139428309627</v>
+        <v>1204.629848388217</v>
       </c>
       <c r="S32" t="n">
-        <v>1242.139428309627</v>
+        <v>1204.629848388217</v>
       </c>
       <c r="T32" t="n">
-        <v>1242.139428309627</v>
+        <v>1204.629848388217</v>
       </c>
       <c r="U32" t="n">
-        <v>1078.554559565767</v>
+        <v>1204.629848388217</v>
       </c>
       <c r="V32" t="n">
-        <v>1078.554559565767</v>
+        <v>1204.629848388217</v>
       </c>
       <c r="W32" t="n">
-        <v>1078.554559565767</v>
+        <v>1204.629848388217</v>
       </c>
       <c r="X32" t="n">
-        <v>795.3884304475305</v>
+        <v>1204.629848388217</v>
       </c>
       <c r="Y32" t="n">
-        <v>495.5487276145623</v>
+        <v>904.7901455552486</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>276.622402743429</v>
+        <v>287.4923030476997</v>
       </c>
       <c r="C33" t="n">
-        <v>192.4690026051455</v>
+        <v>203.3389029094162</v>
       </c>
       <c r="D33" t="n">
-        <v>192.4690026051455</v>
+        <v>144.7041223910084</v>
       </c>
       <c r="E33" t="n">
-        <v>152.5784201205822</v>
+        <v>81.07771739646405</v>
       </c>
       <c r="F33" t="n">
-        <v>96.34349129031067</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="G33" t="n">
-        <v>47.91229501576969</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="H33" t="n">
         <v>24.84278856619254</v>
@@ -6782,49 +6782,49 @@
         <v>24.84278856619254</v>
       </c>
       <c r="K33" t="n">
-        <v>24.84278856619254</v>
+        <v>150.2003486240299</v>
       </c>
       <c r="L33" t="n">
-        <v>195.8835195990484</v>
+        <v>380.1634544923791</v>
       </c>
       <c r="M33" t="n">
-        <v>503.313028105681</v>
+        <v>687.5929629990117</v>
       </c>
       <c r="N33" t="n">
-        <v>810.7425366123136</v>
+        <v>741.3479780989844</v>
       </c>
       <c r="O33" t="n">
-        <v>1059.495950696276</v>
+        <v>990.1013921829467</v>
       </c>
       <c r="P33" t="n">
-        <v>1242.139428309627</v>
+        <v>1172.744869796298</v>
       </c>
       <c r="Q33" t="n">
         <v>1242.139428309627</v>
       </c>
       <c r="R33" t="n">
-        <v>1231.269528005356</v>
+        <v>1242.139428309627</v>
       </c>
       <c r="S33" t="n">
-        <v>1148.151812598868</v>
+        <v>1159.021712903139</v>
       </c>
       <c r="T33" t="n">
-        <v>1036.264847100478</v>
+        <v>1047.134747404749</v>
       </c>
       <c r="U33" t="n">
-        <v>898.3408579797106</v>
+        <v>909.2107582839812</v>
       </c>
       <c r="V33" t="n">
-        <v>753.4883788908114</v>
+        <v>764.3582791950821</v>
       </c>
       <c r="W33" t="n">
-        <v>589.5506513054532</v>
+        <v>600.4205516097239</v>
       </c>
       <c r="X33" t="n">
-        <v>471.9987802427639</v>
+        <v>482.8686805470346</v>
       </c>
       <c r="Y33" t="n">
-        <v>354.5381106206535</v>
+        <v>365.4080109249242</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>370.637555613618</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="C34" t="n">
-        <v>292.0010018285546</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="D34" t="n">
-        <v>292.0010018285546</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="E34" t="n">
-        <v>234.387537389005</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="F34" t="n">
-        <v>177.7972190339382</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="G34" t="n">
-        <v>98.40899023894457</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="H34" t="n">
         <v>24.84278856619254</v>
@@ -6888,22 +6888,22 @@
         <v>668.8522986622129</v>
       </c>
       <c r="T34" t="n">
-        <v>668.8522986622129</v>
+        <v>587.2567001446417</v>
       </c>
       <c r="U34" t="n">
-        <v>469.9407870409242</v>
+        <v>388.345188523353</v>
       </c>
       <c r="V34" t="n">
-        <v>469.9407870409242</v>
+        <v>223.9603294603097</v>
       </c>
       <c r="W34" t="n">
-        <v>469.9407870409242</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="X34" t="n">
-        <v>469.9407870409242</v>
+        <v>24.84278856619254</v>
       </c>
       <c r="Y34" t="n">
-        <v>370.637555613618</v>
+        <v>24.84278856619254</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>295.2445296723706</v>
+        <v>665.4225729155476</v>
       </c>
       <c r="C35" t="n">
-        <v>51.7957530282705</v>
+        <v>421.9737962714475</v>
       </c>
       <c r="D35" t="n">
-        <v>51.7957530282705</v>
+        <v>178.5250196273474</v>
       </c>
       <c r="E35" t="n">
-        <v>51.7957530282705</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>51.7957530282705</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>902.973837238177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>782.1420829605706</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>782.1420829605706</v>
+        <v>829.0074416594076</v>
       </c>
       <c r="U35" t="n">
-        <v>782.1420829605706</v>
+        <v>665.4225729155476</v>
       </c>
       <c r="V35" t="n">
-        <v>782.1420829605706</v>
+        <v>665.4225729155476</v>
       </c>
       <c r="W35" t="n">
-        <v>782.1420829605706</v>
+        <v>665.4225729155476</v>
       </c>
       <c r="X35" t="n">
-        <v>538.6933063164706</v>
+        <v>665.4225729155476</v>
       </c>
       <c r="Y35" t="n">
-        <v>295.2445296723706</v>
+        <v>665.4225729155476</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>204.4147111535873</v>
+        <v>92.5277456551968</v>
       </c>
       <c r="C36" t="n">
-        <v>169.9232559408096</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>111.2884754224019</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>42.35064955978989</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>42.35064955978989</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>42.35064955978989</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7022,16 +7022,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>852.1701900122458</v>
       </c>
       <c r="U36" t="n">
-        <v>826.1331663898688</v>
+        <v>714.2462008914785</v>
       </c>
       <c r="V36" t="n">
-        <v>681.2806873009697</v>
+        <v>569.3937218025792</v>
       </c>
       <c r="W36" t="n">
-        <v>517.3429597156115</v>
+        <v>405.455994217221</v>
       </c>
       <c r="X36" t="n">
-        <v>399.7910886529222</v>
+        <v>287.9041231545317</v>
       </c>
       <c r="Y36" t="n">
-        <v>282.3304190308118</v>
+        <v>170.4434535324213</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>308.4855918025714</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="C37" t="n">
-        <v>229.849038017508</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="D37" t="n">
-        <v>229.849038017508</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="E37" t="n">
-        <v>172.2355735779584</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="F37" t="n">
-        <v>172.2355735779584</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="G37" t="n">
-        <v>92.84734478296475</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7125,22 +7125,22 @@
         <v>663.2906532062331</v>
       </c>
       <c r="T37" t="n">
-        <v>663.2906532062331</v>
+        <v>523.3422122194993</v>
       </c>
       <c r="U37" t="n">
-        <v>610.5603726207886</v>
+        <v>479.425812217688</v>
       </c>
       <c r="V37" t="n">
-        <v>446.1755135577452</v>
+        <v>315.0409531546446</v>
       </c>
       <c r="W37" t="n">
-        <v>446.1755135577452</v>
+        <v>315.0409531546446</v>
       </c>
       <c r="X37" t="n">
-        <v>308.4855918025714</v>
+        <v>177.3510313994707</v>
       </c>
       <c r="Y37" t="n">
-        <v>308.4855918025714</v>
+        <v>177.3510313994707</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>529.1465238604815</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>529.1465238604815</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>529.1465238604815</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>285.6977472163814</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>285.6977472163814</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>262.7299197543128</v>
@@ -7201,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>941.0893280485676</v>
       </c>
       <c r="T38" t="n">
-        <v>760.8694171318746</v>
+        <v>737.901589669806</v>
       </c>
       <c r="U38" t="n">
-        <v>529.1465238604815</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>529.1465238604815</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>529.1465238604815</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>529.1465238604815</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>529.1465238604815</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>315.7025490050012</v>
+        <v>171.5725677760293</v>
       </c>
       <c r="C39" t="n">
-        <v>315.7025490050012</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>315.7025490050012</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>178.6266986148561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>178.6266986148561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>178.6266986148561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>87.41916763774582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7268,10 +7268,10 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>784.0321654847127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>784.0321654847127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>784.0321654847127</v>
+        <v>774.9369096287865</v>
       </c>
       <c r="W39" t="n">
-        <v>551.9564133718214</v>
+        <v>542.8611575158952</v>
       </c>
       <c r="X39" t="n">
-        <v>551.9564133718214</v>
+        <v>357.1712619256728</v>
       </c>
       <c r="Y39" t="n">
-        <v>461.7562814097588</v>
+        <v>171.5725677760293</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>226.2808177623505</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>226.2808177623505</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>226.2808177623505</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>226.2808177623505</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>226.2808177623505</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>226.2808177623505</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>226.2808177623505</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>91.4217406329556</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
         <v>19.28114311021272</v>
@@ -7359,25 +7359,25 @@
         <v>259.7221506900568</v>
       </c>
       <c r="S40" t="n">
-        <v>259.7221506900568</v>
+        <v>55.60436334882954</v>
       </c>
       <c r="T40" t="n">
-        <v>259.7221506900568</v>
+        <v>55.60436334882954</v>
       </c>
       <c r="U40" t="n">
-        <v>259.7221506900568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>226.2808177623505</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>226.2808177623505</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>226.2808177623505</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>226.2808177623505</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>278.0822727989905</v>
+        <v>77.76281549619733</v>
       </c>
       <c r="C41" t="n">
-        <v>278.0822727989905</v>
+        <v>77.76281549619733</v>
       </c>
       <c r="D41" t="n">
-        <v>278.0822727989905</v>
+        <v>7.540019334836087</v>
       </c>
       <c r="E41" t="n">
-        <v>207.8594766376293</v>
+        <v>7.540019334836087</v>
       </c>
       <c r="F41" t="n">
-        <v>137.636680476268</v>
+        <v>7.540019334836087</v>
       </c>
       <c r="G41" t="n">
-        <v>137.636680476268</v>
+        <v>7.540019334836087</v>
       </c>
       <c r="H41" t="n">
-        <v>67.41388431490675</v>
+        <v>7.540019334836087</v>
       </c>
       <c r="I41" t="n">
         <v>7.540019334836087</v>
@@ -7417,13 +7417,13 @@
         <v>74.38700797372996</v>
       </c>
       <c r="L41" t="n">
-        <v>143.2123704914801</v>
+        <v>140.4315477634902</v>
       </c>
       <c r="M41" t="n">
-        <v>143.2123704914801</v>
+        <v>140.4315477634902</v>
       </c>
       <c r="N41" t="n">
-        <v>143.2123704914801</v>
+        <v>209.2569102812404</v>
       </c>
       <c r="O41" t="n">
         <v>209.2569102812404</v>
@@ -7441,22 +7441,22 @@
         <v>278.0822727989905</v>
       </c>
       <c r="T41" t="n">
-        <v>278.0822727989905</v>
+        <v>207.8594766376293</v>
       </c>
       <c r="U41" t="n">
-        <v>278.0822727989905</v>
+        <v>147.9856116575586</v>
       </c>
       <c r="V41" t="n">
-        <v>278.0822727989905</v>
+        <v>147.9856116575586</v>
       </c>
       <c r="W41" t="n">
-        <v>278.0822727989905</v>
+        <v>147.9856116575586</v>
       </c>
       <c r="X41" t="n">
-        <v>278.0822727989905</v>
+        <v>147.9856116575586</v>
       </c>
       <c r="Y41" t="n">
-        <v>278.0822727989905</v>
+        <v>77.76281549619733</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>75.78444161734106</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="C42" t="n">
-        <v>75.78444161734106</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="D42" t="n">
-        <v>75.78444161734106</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="E42" t="n">
-        <v>75.78444161734106</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="F42" t="n">
         <v>5.561645455979811</v>
@@ -7493,19 +7493,19 @@
         <v>5.561645455979811</v>
       </c>
       <c r="K42" t="n">
+        <v>5.561645455979811</v>
+      </c>
+      <c r="L42" t="n">
         <v>74.38700797372996</v>
       </c>
-      <c r="L42" t="n">
-        <v>143.2123704914801</v>
-      </c>
       <c r="M42" t="n">
-        <v>143.2123704914801</v>
+        <v>140.4315477634902</v>
       </c>
       <c r="N42" t="n">
-        <v>143.2123704914801</v>
+        <v>209.2569102812404</v>
       </c>
       <c r="O42" t="n">
-        <v>209.2569102812404</v>
+        <v>278.0822727989905</v>
       </c>
       <c r="P42" t="n">
         <v>278.0822727989905</v>
@@ -7514,28 +7514,28 @@
         <v>278.0822727989905</v>
       </c>
       <c r="R42" t="n">
-        <v>278.0822727989905</v>
+        <v>207.8594766376293</v>
       </c>
       <c r="S42" t="n">
-        <v>216.2300339400635</v>
+        <v>137.636680476268</v>
       </c>
       <c r="T42" t="n">
-        <v>216.2300339400635</v>
+        <v>67.41388431490675</v>
       </c>
       <c r="U42" t="n">
-        <v>216.2300339400635</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="V42" t="n">
-        <v>216.2300339400635</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="W42" t="n">
-        <v>216.2300339400635</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="X42" t="n">
-        <v>146.0072377787023</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="Y42" t="n">
-        <v>75.78444161734106</v>
+        <v>5.561645455979811</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.40807840776938</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="C43" t="n">
-        <v>46.40807840776938</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="D43" t="n">
-        <v>46.40807840776938</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="E43" t="n">
-        <v>46.40807840776938</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="F43" t="n">
-        <v>46.40807840776938</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="G43" t="n">
         <v>5.561645455979811</v>
@@ -7590,31 +7590,31 @@
         <v>186.8536707304919</v>
       </c>
       <c r="Q43" t="n">
-        <v>116.6308745691306</v>
+        <v>186.8536707304919</v>
       </c>
       <c r="R43" t="n">
-        <v>116.6308745691306</v>
+        <v>186.8536707304919</v>
       </c>
       <c r="S43" t="n">
-        <v>116.6308745691306</v>
+        <v>186.8536707304919</v>
       </c>
       <c r="T43" t="n">
-        <v>116.6308745691306</v>
+        <v>146.0072377787023</v>
       </c>
       <c r="U43" t="n">
-        <v>116.6308745691306</v>
+        <v>75.78444161734106</v>
       </c>
       <c r="V43" t="n">
-        <v>116.6308745691306</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="W43" t="n">
-        <v>116.6308745691306</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="X43" t="n">
-        <v>46.40807840776938</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.40807840776938</v>
+        <v>5.561645455979811</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>77.76281549619733</v>
+        <v>137.636680476268</v>
       </c>
       <c r="C44" t="n">
-        <v>7.540019334836087</v>
+        <v>137.636680476268</v>
       </c>
       <c r="D44" t="n">
-        <v>7.540019334836087</v>
+        <v>137.636680476268</v>
       </c>
       <c r="E44" t="n">
-        <v>7.540019334836087</v>
+        <v>137.636680476268</v>
       </c>
       <c r="F44" t="n">
-        <v>7.540019334836087</v>
+        <v>67.41388431490675</v>
       </c>
       <c r="G44" t="n">
-        <v>7.540019334836087</v>
+        <v>67.41388431490675</v>
       </c>
       <c r="H44" t="n">
-        <v>7.540019334836087</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="I44" t="n">
-        <v>7.540019334836087</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="J44" t="n">
         <v>5.561645455979811</v>
@@ -7657,10 +7657,10 @@
         <v>143.2123704914801</v>
       </c>
       <c r="M44" t="n">
-        <v>143.2123704914801</v>
+        <v>212.0377330092302</v>
       </c>
       <c r="N44" t="n">
-        <v>209.2569102812404</v>
+        <v>278.0822727989905</v>
       </c>
       <c r="O44" t="n">
         <v>278.0822727989905</v>
@@ -7672,19 +7672,19 @@
         <v>278.0822727989905</v>
       </c>
       <c r="R44" t="n">
-        <v>207.8594766376293</v>
+        <v>278.0822727989905</v>
       </c>
       <c r="S44" t="n">
-        <v>207.8594766376293</v>
+        <v>278.0822727989905</v>
       </c>
       <c r="T44" t="n">
-        <v>207.8594766376293</v>
+        <v>278.0822727989905</v>
       </c>
       <c r="U44" t="n">
-        <v>207.8594766376293</v>
+        <v>278.0822727989905</v>
       </c>
       <c r="V44" t="n">
-        <v>207.8594766376293</v>
+        <v>278.0822727989905</v>
       </c>
       <c r="W44" t="n">
         <v>207.8594766376293</v>
@@ -7693,7 +7693,7 @@
         <v>137.636680476268</v>
       </c>
       <c r="Y44" t="n">
-        <v>77.76281549619733</v>
+        <v>137.636680476268</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>216.2300339400635</v>
+        <v>75.78444161734106</v>
       </c>
       <c r="C45" t="n">
-        <v>216.2300339400635</v>
+        <v>75.78444161734106</v>
       </c>
       <c r="D45" t="n">
-        <v>216.2300339400635</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="E45" t="n">
-        <v>216.2300339400635</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="F45" t="n">
-        <v>146.0072377787023</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="G45" t="n">
-        <v>75.78444161734106</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="H45" t="n">
         <v>5.561645455979811</v>
@@ -7730,22 +7730,22 @@
         <v>5.561645455979811</v>
       </c>
       <c r="K45" t="n">
-        <v>74.38700797372996</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="L45" t="n">
-        <v>143.2123704914801</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="M45" t="n">
+        <v>5.561645455979811</v>
+      </c>
+      <c r="N45" t="n">
+        <v>71.60618524574009</v>
+      </c>
+      <c r="O45" t="n">
+        <v>140.4315477634902</v>
+      </c>
+      <c r="P45" t="n">
         <v>209.2569102812404</v>
-      </c>
-      <c r="N45" t="n">
-        <v>278.0822727989905</v>
-      </c>
-      <c r="O45" t="n">
-        <v>278.0822727989905</v>
-      </c>
-      <c r="P45" t="n">
-        <v>278.0822727989905</v>
       </c>
       <c r="Q45" t="n">
         <v>278.0822727989905</v>
@@ -7757,22 +7757,22 @@
         <v>216.2300339400635</v>
       </c>
       <c r="T45" t="n">
-        <v>216.2300339400635</v>
+        <v>146.0072377787023</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2300339400635</v>
+        <v>75.78444161734106</v>
       </c>
       <c r="V45" t="n">
-        <v>216.2300339400635</v>
+        <v>75.78444161734106</v>
       </c>
       <c r="W45" t="n">
-        <v>216.2300339400635</v>
+        <v>75.78444161734106</v>
       </c>
       <c r="X45" t="n">
-        <v>216.2300339400635</v>
+        <v>75.78444161734106</v>
       </c>
       <c r="Y45" t="n">
-        <v>216.2300339400635</v>
+        <v>75.78444161734106</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>17.96446627551319</v>
+        <v>116.6308745691306</v>
       </c>
       <c r="C46" t="n">
-        <v>17.96446627551319</v>
+        <v>116.6308745691306</v>
       </c>
       <c r="D46" t="n">
-        <v>17.96446627551319</v>
+        <v>116.6308745691306</v>
       </c>
       <c r="E46" t="n">
-        <v>17.96446627551319</v>
+        <v>116.6308745691306</v>
       </c>
       <c r="F46" t="n">
-        <v>17.96446627551319</v>
+        <v>116.6308745691306</v>
       </c>
       <c r="G46" t="n">
-        <v>17.96446627551319</v>
+        <v>116.6308745691306</v>
       </c>
       <c r="H46" t="n">
-        <v>17.96446627551319</v>
+        <v>116.6308745691306</v>
       </c>
       <c r="I46" t="n">
-        <v>17.96446627551319</v>
+        <v>46.40807840776938</v>
       </c>
       <c r="J46" t="n">
-        <v>17.96446627551319</v>
+        <v>5.561645455979811</v>
       </c>
       <c r="K46" t="n">
         <v>5.561645455979811</v>
@@ -7827,31 +7827,31 @@
         <v>186.8536707304919</v>
       </c>
       <c r="Q46" t="n">
+        <v>186.8536707304919</v>
+      </c>
+      <c r="R46" t="n">
         <v>116.6308745691306</v>
       </c>
-      <c r="R46" t="n">
-        <v>46.40807840776938</v>
-      </c>
       <c r="S46" t="n">
-        <v>17.96446627551319</v>
+        <v>116.6308745691306</v>
       </c>
       <c r="T46" t="n">
-        <v>17.96446627551319</v>
+        <v>116.6308745691306</v>
       </c>
       <c r="U46" t="n">
-        <v>17.96446627551319</v>
+        <v>116.6308745691306</v>
       </c>
       <c r="V46" t="n">
-        <v>17.96446627551319</v>
+        <v>116.6308745691306</v>
       </c>
       <c r="W46" t="n">
-        <v>17.96446627551319</v>
+        <v>116.6308745691306</v>
       </c>
       <c r="X46" t="n">
-        <v>17.96446627551319</v>
+        <v>116.6308745691306</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.96446627551319</v>
+        <v>116.6308745691306</v>
       </c>
     </row>
   </sheetData>
@@ -8698,16 +8698,16 @@
         <v>305.2869831697349</v>
       </c>
       <c r="M11" t="n">
-        <v>297.0578895805659</v>
+        <v>299.8668014270204</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>296.1247199498841</v>
       </c>
       <c r="O11" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>300.7535639550172</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8774,22 +8774,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>208.0749479796218</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>211.6546021217659</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>200.8622802830809</v>
       </c>
       <c r="O12" t="n">
-        <v>209.3079007977377</v>
+        <v>212.1168126441921</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>200.6860637676235</v>
       </c>
       <c r="Q12" t="n">
-        <v>209.5023422857691</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,19 +8932,19 @@
         <v>289.6104192447282</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>305.2869831697349</v>
       </c>
       <c r="M14" t="n">
-        <v>297.0578895805659</v>
+        <v>299.8668014270204</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>296.1247199498841</v>
       </c>
       <c r="O14" t="n">
-        <v>299.6187796214343</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>300.7535639550172</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>207.3620071741066</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>211.6546021217659</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>198.0533684366265</v>
+        <v>200.8622802830809</v>
       </c>
       <c r="O15" t="n">
         <v>212.1168126441921</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>203.4949756140779</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>206.6934304393147</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9725,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>452.668890999425</v>
+        <v>196.4320289724959</v>
       </c>
       <c r="N24" t="n">
         <v>441.87656916074</v>
       </c>
       <c r="O24" t="n">
-        <v>322.1138184754073</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>262.8122498610838</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>452.668890999425</v>
       </c>
       <c r="N27" t="n">
-        <v>417.9256726573958</v>
+        <v>441.87656916074</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,16 +10202,16 @@
         <v>452.668890999425</v>
       </c>
       <c r="N30" t="n">
-        <v>441.87656916074</v>
+        <v>382.3590188218579</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>205.106500541205</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>311.3227949645772</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>452.668890999425</v>
       </c>
       <c r="N33" t="n">
-        <v>441.87656916074</v>
+        <v>185.6397071338108</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,19 +10670,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10916,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>255.9771075721939</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,16 +11065,16 @@
         <v>289.6104192447282</v>
       </c>
       <c r="L41" t="n">
-        <v>305.2869831697349</v>
+        <v>302.4780713232805</v>
       </c>
       <c r="M41" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>298.9336317963385</v>
       </c>
       <c r="O41" t="n">
-        <v>296.8098677749799</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
         <v>300.7535639550172</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>207.3620071741066</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>208.0749479796218</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>208.8456902753115</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>200.8622802830809</v>
       </c>
       <c r="O42" t="n">
-        <v>209.3079007977377</v>
+        <v>212.1168126441921</v>
       </c>
       <c r="P42" t="n">
-        <v>203.4949756140779</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11305,13 +11305,13 @@
         <v>305.2869831697349</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>299.8668014270204</v>
       </c>
       <c r="N44" t="n">
         <v>296.1247199498841</v>
       </c>
       <c r="O44" t="n">
-        <v>299.6187796214343</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>207.3620071741066</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>208.0749479796218</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>208.8456902753115</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>200.8622802830809</v>
+        <v>198.0533684366265</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>212.1168126441921</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>203.4949756140779</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>209.5023422857691</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.7845523088681</v>
+        <v>309.5508358385304</v>
       </c>
       <c r="C11" t="n">
         <v>353.323602416395</v>
@@ -23269,13 +23269,13 @@
         <v>369.9810807176493</v>
       </c>
       <c r="F11" t="n">
-        <v>333.6930399167613</v>
+        <v>394.9267563870989</v>
       </c>
       <c r="G11" t="n">
         <v>403.3534481605225</v>
       </c>
       <c r="H11" t="n">
-        <v>327.5255127611546</v>
+        <v>258.004944561407</v>
       </c>
       <c r="I11" t="n">
         <v>198.5266002157934</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>137.9198285865372</v>
+        <v>68.39926038678954</v>
       </c>
       <c r="S11" t="n">
-        <v>197.0707802316328</v>
+        <v>127.5502120318852</v>
       </c>
       <c r="T11" t="n">
-        <v>141.6259920097712</v>
+        <v>211.1465602095188</v>
       </c>
       <c r="U11" t="n">
         <v>239.396363553224</v>
       </c>
       <c r="V11" t="n">
-        <v>246.2824009157748</v>
+        <v>315.8029691155224</v>
       </c>
       <c r="W11" t="n">
         <v>337.2916793628005</v>
@@ -23326,7 +23326,7 @@
         <v>357.7818113238565</v>
       </c>
       <c r="Y11" t="n">
-        <v>304.7680811016934</v>
+        <v>374.2886493014411</v>
       </c>
     </row>
     <row r="12">
@@ -23348,16 +23348,16 @@
         <v>145.6957911007884</v>
       </c>
       <c r="F12" t="n">
-        <v>63.59935483902373</v>
+        <v>133.1199230387714</v>
       </c>
       <c r="G12" t="n">
-        <v>55.87365960885049</v>
+        <v>55.8736596088505</v>
       </c>
       <c r="H12" t="n">
-        <v>30.76558668213632</v>
+        <v>100.286154881884</v>
       </c>
       <c r="I12" t="n">
-        <v>16.2136270264649</v>
+        <v>7.926775297054945</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>88.20854479803062</v>
+        <v>18.687976598283</v>
       </c>
       <c r="S12" t="n">
         <v>159.7338817492253</v>
@@ -23402,10 +23402,10 @@
         <v>239.7456938063071</v>
       </c>
       <c r="X12" t="n">
-        <v>193.823695848865</v>
+        <v>132.5899793785273</v>
       </c>
       <c r="Y12" t="n">
-        <v>193.7334064226918</v>
+        <v>193.7334064226919</v>
       </c>
     </row>
     <row r="13">
@@ -23421,28 +23421,28 @@
         <v>155.2975317440153</v>
       </c>
       <c r="D13" t="n">
-        <v>136.6661836635998</v>
+        <v>67.14561546385221</v>
       </c>
       <c r="E13" t="n">
         <v>134.4846732919567</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4717586683187</v>
+        <v>83.4357190646453</v>
       </c>
       <c r="G13" t="n">
-        <v>156.0416900038462</v>
+        <v>86.52112180409864</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2418435491535</v>
+        <v>150.2778831528271</v>
       </c>
       <c r="I13" t="n">
-        <v>73.98061737289814</v>
+        <v>143.5011855726458</v>
       </c>
       <c r="J13" t="n">
-        <v>11.88932256231263</v>
+        <v>81.40989076206027</v>
       </c>
       <c r="K13" t="n">
-        <v>10.32020247127033</v>
+        <v>10.32020247127035</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.21275389708187</v>
+        <v>74.21275389708188</v>
       </c>
       <c r="R13" t="n">
         <v>165.344102022557</v>
@@ -23497,25 +23497,25 @@
         <v>370.7845523088681</v>
       </c>
       <c r="C14" t="n">
-        <v>353.3236024163951</v>
+        <v>283.8030342166474</v>
       </c>
       <c r="D14" t="n">
-        <v>342.7337522660705</v>
+        <v>273.2131840663228</v>
       </c>
       <c r="E14" t="n">
         <v>369.9810807176493</v>
       </c>
       <c r="F14" t="n">
-        <v>394.926756387099</v>
+        <v>394.9267563870989</v>
       </c>
       <c r="G14" t="n">
-        <v>403.3534481605226</v>
+        <v>403.3534481605225</v>
       </c>
       <c r="H14" t="n">
-        <v>327.5255127611547</v>
+        <v>327.5255127611546</v>
       </c>
       <c r="I14" t="n">
-        <v>198.5266002157935</v>
+        <v>198.5266002157934</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>137.9198285865372</v>
+        <v>68.39926038678954</v>
       </c>
       <c r="S14" t="n">
-        <v>135.8370637612952</v>
+        <v>197.0707802316328</v>
       </c>
       <c r="T14" t="n">
-        <v>141.6259920097713</v>
+        <v>211.1465602095188</v>
       </c>
       <c r="U14" t="n">
-        <v>169.8757953534764</v>
+        <v>239.396363553224</v>
       </c>
       <c r="V14" t="n">
-        <v>246.2824009157749</v>
+        <v>315.8029691155224</v>
       </c>
       <c r="W14" t="n">
-        <v>337.2916793628006</v>
+        <v>337.2916793628005</v>
       </c>
       <c r="X14" t="n">
-        <v>357.7818113238566</v>
+        <v>357.7818113238565</v>
       </c>
       <c r="Y14" t="n">
-        <v>374.2886493014412</v>
+        <v>313.0549328311034</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>154.5838942952549</v>
+        <v>85.06332609550719</v>
       </c>
       <c r="C15" t="n">
-        <v>160.7592096337033</v>
+        <v>160.7592096337032</v>
       </c>
       <c r="D15" t="n">
-        <v>135.4957762100263</v>
+        <v>74.26205973968857</v>
       </c>
       <c r="E15" t="n">
-        <v>145.6957911007885</v>
+        <v>145.6957911007884</v>
       </c>
       <c r="F15" t="n">
         <v>133.1199230387714</v>
       </c>
       <c r="G15" t="n">
-        <v>125.3942278085982</v>
+        <v>125.3942278085981</v>
       </c>
       <c r="H15" t="n">
-        <v>100.286154881884</v>
+        <v>100.2861548818839</v>
       </c>
       <c r="I15" t="n">
-        <v>77.44734349680265</v>
+        <v>77.44734349680256</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>18.68797659828307</v>
+        <v>18.68797659828299</v>
       </c>
       <c r="S15" t="n">
-        <v>90.21331354947776</v>
+        <v>159.7338817492253</v>
       </c>
       <c r="T15" t="n">
         <v>118.6948711404615</v>
       </c>
       <c r="U15" t="n">
-        <v>152.7583762560247</v>
+        <v>213.9920927263623</v>
       </c>
       <c r="V15" t="n">
         <v>220.8512977948128</v>
       </c>
       <c r="W15" t="n">
-        <v>239.7456938063072</v>
+        <v>239.7456938063071</v>
       </c>
       <c r="X15" t="n">
         <v>193.823695848865</v>
       </c>
       <c r="Y15" t="n">
-        <v>193.7334064226919</v>
+        <v>193.7334064226918</v>
       </c>
     </row>
     <row r="16">
@@ -23652,34 +23652,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>167.8826908273249</v>
+        <v>167.8826908273248</v>
       </c>
       <c r="C16" t="n">
-        <v>155.2975317440154</v>
+        <v>155.2975317440153</v>
       </c>
       <c r="D16" t="n">
-        <v>136.6661836635999</v>
+        <v>136.6661836635998</v>
       </c>
       <c r="E16" t="n">
         <v>134.4846732919567</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4717586683188</v>
+        <v>63.9511904685711</v>
       </c>
       <c r="G16" t="n">
-        <v>156.0416900038463</v>
+        <v>106.0056504001727</v>
       </c>
       <c r="H16" t="n">
-        <v>110.5620460204244</v>
+        <v>150.2778831528271</v>
       </c>
       <c r="I16" t="n">
-        <v>73.98061737289822</v>
+        <v>143.5011855726458</v>
       </c>
       <c r="J16" t="n">
-        <v>11.88932256231271</v>
+        <v>81.40989076206026</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>10.32020247127033</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.21275389708195</v>
+        <v>4.692185697334239</v>
       </c>
       <c r="R16" t="n">
-        <v>165.3441020225571</v>
+        <v>165.344102022557</v>
       </c>
       <c r="S16" t="n">
-        <v>212.0673086823598</v>
+        <v>212.0673086823597</v>
       </c>
       <c r="T16" t="n">
-        <v>215.9963000736691</v>
+        <v>215.996300073669</v>
       </c>
       <c r="U16" t="n">
         <v>274.3697400018784</v>
       </c>
       <c r="V16" t="n">
-        <v>240.1883539692156</v>
+        <v>240.1883539692155</v>
       </c>
       <c r="W16" t="n">
-        <v>274.5737089819786</v>
+        <v>274.5737089819785</v>
       </c>
       <c r="X16" t="n">
-        <v>213.7603660344247</v>
+        <v>213.7603660344246</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.6353639974824</v>
+        <v>206.6353639974823</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>364.1082254291682</v>
+        <v>151.8228397857262</v>
       </c>
       <c r="C17" t="n">
-        <v>346.6472755366951</v>
+        <v>105.6329866590361</v>
       </c>
       <c r="D17" t="n">
         <v>336.0574253863705</v>
       </c>
       <c r="E17" t="n">
-        <v>151.0193681945074</v>
+        <v>363.3047538379494</v>
       </c>
       <c r="F17" t="n">
         <v>147.23614062974</v>
@@ -23749,7 +23749,7 @@
         <v>155.6628324031636</v>
       </c>
       <c r="H17" t="n">
-        <v>79.83489700379567</v>
+        <v>320.8491858814547</v>
       </c>
       <c r="I17" t="n">
         <v>191.8502733360935</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.029098575057191</v>
+        <v>147.9075674155549</v>
       </c>
       <c r="C18" t="n">
         <v>154.0828827540033</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.8194493303263</v>
       </c>
       <c r="E18" t="n">
         <v>139.0194642210885</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>81.5322179183307</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>153.0575548695254</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>181.5391124605092</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>214.1749709151129</v>
+        <v>60.61705184474198</v>
       </c>
       <c r="W18" t="n">
         <v>233.0693669266072</v>
       </c>
       <c r="X18" t="n">
-        <v>187.147368969165</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>187.0570795429919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23892,10 +23892,10 @@
         <v>161.2063639476249</v>
       </c>
       <c r="C19" t="n">
-        <v>85.49446413003432</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>129.9898567838999</v>
+        <v>56.81654577107714</v>
       </c>
       <c r="E19" t="n">
         <v>127.8083464122567</v>
@@ -23937,7 +23937,7 @@
         <v>67.53642701738195</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>158.6677751428571</v>
       </c>
       <c r="S19" t="n">
         <v>205.3909818026598</v>
@@ -23983,10 +23983,10 @@
         <v>388.250429507399</v>
       </c>
       <c r="G20" t="n">
-        <v>155.6628324031636</v>
+        <v>396.6771212808226</v>
       </c>
       <c r="H20" t="n">
-        <v>79.83489700379567</v>
+        <v>320.8491858814547</v>
       </c>
       <c r="I20" t="n">
         <v>191.8502733360935</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.80851386748796</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>232.7200366735241</v>
       </c>
       <c r="V20" t="n">
-        <v>309.1266422358225</v>
+        <v>140.9208672256514</v>
       </c>
       <c r="W20" t="n">
-        <v>330.6153524831006</v>
+        <v>89.60106360544154</v>
       </c>
       <c r="X20" t="n">
         <v>351.1054844441566</v>
@@ -24050,7 +24050,7 @@
         <v>147.9075674155549</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>154.0828827540033</v>
       </c>
       <c r="D21" t="n">
         <v>128.8194493303263</v>
@@ -24065,7 +24065,7 @@
         <v>118.7179009288982</v>
       </c>
       <c r="H21" t="n">
-        <v>22.680126700328</v>
+        <v>93.60982800218403</v>
       </c>
       <c r="I21" t="n">
         <v>70.77101661710265</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>81.5322179183307</v>
       </c>
       <c r="S21" t="n">
-        <v>153.0575548695254</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>181.5391124605092</v>
       </c>
       <c r="U21" t="n">
-        <v>207.3157658466624</v>
+        <v>59.43677525065374</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>187.147368969165</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>187.0570795429919</v>
@@ -24180,13 +24180,13 @@
         <v>205.3909818026598</v>
       </c>
       <c r="T22" t="n">
-        <v>187.4844944346133</v>
+        <v>209.3199731939691</v>
       </c>
       <c r="U22" t="n">
         <v>267.6934131221785</v>
       </c>
       <c r="V22" t="n">
-        <v>233.5120270895156</v>
+        <v>11.71751121237739</v>
       </c>
       <c r="W22" t="n">
         <v>267.8973821022786</v>
@@ -24195,7 +24195,7 @@
         <v>207.0840391547247</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>199.9590371177824</v>
       </c>
     </row>
     <row r="23">
@@ -24214,10 +24214,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>295.8481095556916</v>
       </c>
       <c r="F23" t="n">
-        <v>10.25892814773459</v>
+        <v>320.7937852251413</v>
       </c>
       <c r="G23" t="n">
         <v>329.2204769985649</v>
@@ -24226,7 +24226,7 @@
         <v>253.392541599197</v>
       </c>
       <c r="I23" t="n">
-        <v>124.3936290538357</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>122.9378090696752</v>
       </c>
       <c r="T23" t="n">
-        <v>137.0135890475612</v>
+        <v>79.25341379081934</v>
       </c>
       <c r="U23" t="n">
-        <v>165.2633923912663</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.6699979535647</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>263.1587082008429</v>
       </c>
       <c r="X23" t="n">
-        <v>283.6488401618989</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>33.80260995527414</v>
+        <v>300.1556781394834</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>78.47235596694148</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>61.36280504806857</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>58.98695187681369</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>51.26125664664045</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>26.15318371992628</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3.31437233484489</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>0.1193964367847258</v>
       </c>
     </row>
     <row r="25">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.73368592991434</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>81.16456058205765</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>62.53321250164217</v>
       </c>
       <c r="E25" t="n">
         <v>60.35170212999898</v>
@@ -24417,22 +24417,22 @@
         <v>137.9343375204021</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>141.8633289117113</v>
       </c>
       <c r="U25" t="n">
         <v>200.2367688399207</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>117.4669322245524</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>139.627394872467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>132.5023928355246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>279.1906312544373</v>
       </c>
       <c r="D26" t="n">
-        <v>268.6007811041128</v>
+        <v>268.6007811041127</v>
       </c>
       <c r="E26" t="n">
-        <v>295.8481095556916</v>
+        <v>259.3817371189257</v>
       </c>
       <c r="F26" t="n">
-        <v>320.7937852251413</v>
+        <v>320.7937852251412</v>
       </c>
       <c r="G26" t="n">
-        <v>227.8540723927105</v>
+        <v>329.2204769985648</v>
       </c>
       <c r="H26" t="n">
-        <v>253.392541599197</v>
+        <v>253.3925415991969</v>
       </c>
       <c r="I26" t="n">
         <v>124.3936290538357</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>63.78685742457949</v>
+        <v>63.78685742457948</v>
       </c>
       <c r="S26" t="n">
-        <v>122.9378090696752</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>137.0135890475611</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.6699979535647</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>263.1587082008428</v>
       </c>
       <c r="X26" t="n">
-        <v>283.6488401618989</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>300.1556781394834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24530,19 +24530,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.1193964367846263</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>58.98695187681368</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>51.26125664664043</v>
       </c>
       <c r="H27" t="n">
-        <v>26.15318371992628</v>
+        <v>26.15318371992626</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3.314372334844876</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>113.6819772950838</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.74971966536711</v>
+        <v>93.7497196653671</v>
       </c>
       <c r="C28" t="n">
-        <v>81.16456058205765</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>62.53321250164217</v>
+        <v>62.53321250164215</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>60.35170212999897</v>
       </c>
       <c r="F28" t="n">
-        <v>59.33878750636106</v>
+        <v>59.33878750636104</v>
       </c>
       <c r="G28" t="n">
-        <v>81.90871884188857</v>
+        <v>81.34448314332712</v>
       </c>
       <c r="H28" t="n">
-        <v>76.14491199086939</v>
+        <v>76.14491199086937</v>
       </c>
       <c r="I28" t="n">
-        <v>69.3682144106881</v>
+        <v>69.36821441068808</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>7.276919600102573</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,28 +24645,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.07978273512418355</v>
       </c>
       <c r="R28" t="n">
-        <v>91.2111308605993</v>
+        <v>91.21113086059928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>137.934337520402</v>
       </c>
       <c r="T28" t="n">
         <v>141.8633289117113</v>
       </c>
       <c r="U28" t="n">
-        <v>200.2367688399207</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>28.91921672479228</v>
+        <v>166.0553828072578</v>
       </c>
       <c r="W28" t="n">
-        <v>200.4407378200208</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>139.6273948724669</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>296.6515811469103</v>
+        <v>296.6515811469104</v>
       </c>
       <c r="C29" t="n">
         <v>279.1906312544373</v>
       </c>
       <c r="D29" t="n">
-        <v>268.6007811041127</v>
+        <v>268.6007811041128</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>295.8481095556916</v>
       </c>
       <c r="F29" t="n">
-        <v>320.7937852251412</v>
+        <v>10.25892814773459</v>
       </c>
       <c r="G29" t="n">
-        <v>329.2204769985648</v>
+        <v>136.9364348823339</v>
       </c>
       <c r="H29" t="n">
-        <v>253.3925415991969</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>124.3936290538356</v>
+        <v>124.3936290538357</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>63.78685742457941</v>
+        <v>63.78685742457949</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>122.9378090696752</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>137.0135890475612</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>57.76490281124205</v>
+        <v>241.6699979535647</v>
       </c>
       <c r="W29" t="n">
-        <v>263.1587082008427</v>
+        <v>263.1587082008429</v>
       </c>
       <c r="X29" t="n">
-        <v>283.6488401618988</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>300.1556781394834</v>
       </c>
     </row>
     <row r="30">
@@ -24764,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>61.36280504806848</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>71.56281993883067</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>3.595163693265029</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.314372334844805</v>
+        <v>3.31437233484489</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>14.07557363607295</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>85.60091058726763</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>36.84430445682469</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.74971966536702</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>81.16456058205765</v>
       </c>
       <c r="D31" t="n">
-        <v>62.53321250164208</v>
+        <v>62.53321250164217</v>
       </c>
       <c r="E31" t="n">
-        <v>60.3517021299989</v>
+        <v>60.35170212999898</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>59.33878750636106</v>
       </c>
       <c r="G31" t="n">
-        <v>81.90871884188849</v>
+        <v>81.90871884188857</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>76.14491199086939</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>7.276919600102502</v>
+        <v>7.276919600102588</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.07978273512419776</v>
       </c>
       <c r="R31" t="n">
-        <v>91.21113086059921</v>
+        <v>91.2111308605993</v>
       </c>
       <c r="S31" t="n">
-        <v>90.61262275359462</v>
+        <v>137.9343375204021</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>141.8633289117113</v>
       </c>
       <c r="U31" t="n">
-        <v>200.2367688399206</v>
+        <v>200.2367688399207</v>
       </c>
       <c r="V31" t="n">
-        <v>166.0553828072577</v>
+        <v>166.0553828072578</v>
       </c>
       <c r="W31" t="n">
-        <v>200.4407378200207</v>
+        <v>20.77976382798252</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>132.5023928355245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24928,10 +24928,10 @@
         <v>292.5337372208467</v>
       </c>
       <c r="F32" t="n">
-        <v>317.4794128902964</v>
+        <v>6.944555812889689</v>
       </c>
       <c r="G32" t="n">
-        <v>109.985394270186</v>
+        <v>15.3712475863133</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>60.4724850897346</v>
+        <v>23.33800096753891</v>
       </c>
       <c r="S32" t="n">
         <v>119.6234367348303</v>
@@ -24973,7 +24973,7 @@
         <v>133.6992167127163</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V32" t="n">
         <v>238.3556256187198</v>
@@ -24982,7 +24982,7 @@
         <v>259.8443358659979</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25001,19 +25001,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>28.75677094426819</v>
+        <v>5.258306659386925</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>90.43534733052222</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D34" t="n">
         <v>59.21884016679728</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I34" t="n">
         <v>66.05384207584321</v>
@@ -25128,22 +25128,22 @@
         <v>134.6199651855572</v>
       </c>
       <c r="T34" t="n">
-        <v>138.5489565768664</v>
+        <v>57.769314044471</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>162.7410104724129</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>197.1263654851759</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>136.3130225376221</v>
       </c>
       <c r="Y34" t="n">
-        <v>30.87782138764662</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="35">
@@ -25159,16 +25159,16 @@
         <v>34.86197004193343</v>
       </c>
       <c r="D35" t="n">
-        <v>265.2864087692679</v>
+        <v>24.27211989160884</v>
       </c>
       <c r="E35" t="n">
-        <v>292.5337372208467</v>
+        <v>134.8822994688834</v>
       </c>
       <c r="F35" t="n">
         <v>317.4794128902964</v>
       </c>
       <c r="G35" t="n">
-        <v>293.7166408448428</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H35" t="n">
         <v>250.0781692643521</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T35" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>161.9490200564214</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>238.3556256187198</v>
@@ -25219,10 +25219,10 @@
         <v>259.8443358659979</v>
       </c>
       <c r="X35" t="n">
-        <v>39.32017894939491</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y35" t="n">
-        <v>55.82701692697947</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="36">
@@ -25235,13 +25235,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>49.16532547625079</v>
+        <v>10.79772961736643</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F36" t="n">
         <v>55.6725795419688</v>
@@ -25250,7 +25250,7 @@
         <v>47.94688431179556</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>82.28653825242274</v>
       </c>
       <c r="T36" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D37" t="n">
         <v>59.21884016679728</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F37" t="n">
         <v>56.02441517151617</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I37" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>3.962547265257697</v>
@@ -25365,10 +25365,10 @@
         <v>134.6199651855572</v>
       </c>
       <c r="T37" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>144.7194187254858</v>
+        <v>153.4451605032826</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25399,13 +25399,13 @@
         <v>332.7430530515256</v>
       </c>
       <c r="E38" t="n">
-        <v>118.9760926254454</v>
+        <v>359.9903815031045</v>
       </c>
       <c r="F38" t="n">
         <v>384.9360571725541</v>
       </c>
       <c r="G38" t="n">
-        <v>370.6245997585298</v>
+        <v>393.3627489459777</v>
       </c>
       <c r="H38" t="n">
         <v>76.52052466895077</v>
@@ -25441,7 +25441,7 @@
         <v>127.9291293719924</v>
       </c>
       <c r="S38" t="n">
-        <v>187.080081017088</v>
+        <v>164.3419318296401</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>305.8122699009776</v>
+        <v>64.79798102331853</v>
       </c>
       <c r="W38" t="n">
         <v>327.3009801482557</v>
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>144.59319508071</v>
       </c>
       <c r="C39" t="n">
-        <v>150.7685104191584</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>125.5050769954814</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.7050918862436</v>
       </c>
       <c r="F39" t="n">
         <v>123.1292238242266</v>
@@ -25487,10 +25487,10 @@
         <v>115.4035285940533</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>90.29545566733914</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.45664428225776</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>149.7431825346805</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>178.2247401256643</v>
       </c>
       <c r="U39" t="n">
         <v>204.0013935118175</v>
       </c>
       <c r="V39" t="n">
-        <v>210.8605985802679</v>
+        <v>23.63155515723668</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>183.8329966343202</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>94.44457656570503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25569,10 +25569,10 @@
         <v>140.2871839382823</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>133.510486358101</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>71.41919154751545</v>
       </c>
       <c r="K40" t="n">
         <v>0.3295032567255305</v>
@@ -25599,16 +25599,16 @@
         <v>155.3534028080122</v>
       </c>
       <c r="S40" t="n">
-        <v>202.0766094678149</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>206.0056008591242</v>
       </c>
       <c r="U40" t="n">
-        <v>264.3790407873336</v>
+        <v>228.4190527511029</v>
       </c>
       <c r="V40" t="n">
-        <v>197.0907351562415</v>
+        <v>230.1976547546707</v>
       </c>
       <c r="W40" t="n">
         <v>264.5830097674337</v>
@@ -25633,22 +25633,22 @@
         <v>355.2821925564627</v>
       </c>
       <c r="D41" t="n">
-        <v>344.6923424061382</v>
+        <v>275.1717742063905</v>
       </c>
       <c r="E41" t="n">
-        <v>302.4191026579693</v>
+        <v>371.939670857717</v>
       </c>
       <c r="F41" t="n">
-        <v>327.364778327419</v>
+        <v>396.8853465271666</v>
       </c>
       <c r="G41" t="n">
         <v>405.3120383005902</v>
       </c>
       <c r="H41" t="n">
-        <v>259.9635347014747</v>
+        <v>329.4841029012223</v>
       </c>
       <c r="I41" t="n">
-        <v>141.2100640255912</v>
+        <v>200.4851903558611</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>199.0293703717005</v>
       </c>
       <c r="T41" t="n">
-        <v>213.1051503495866</v>
+        <v>143.5845821498389</v>
       </c>
       <c r="U41" t="n">
-        <v>241.3549536932917</v>
+        <v>182.0798273630217</v>
       </c>
       <c r="V41" t="n">
         <v>317.7615592555901</v>
@@ -25696,7 +25696,7 @@
         <v>359.7404014639242</v>
       </c>
       <c r="Y41" t="n">
-        <v>376.2472394415088</v>
+        <v>306.7266712417612</v>
       </c>
     </row>
     <row r="42">
@@ -25718,7 +25718,7 @@
         <v>147.6543812408561</v>
       </c>
       <c r="F42" t="n">
-        <v>65.55794497909145</v>
+        <v>135.0785131788391</v>
       </c>
       <c r="G42" t="n">
         <v>127.3528179486658</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>90.16713493809833</v>
+        <v>20.6465667383507</v>
       </c>
       <c r="S42" t="n">
-        <v>100.4587554189553</v>
+        <v>92.17190368954539</v>
       </c>
       <c r="T42" t="n">
-        <v>190.1740294802768</v>
+        <v>120.6534612805292</v>
       </c>
       <c r="U42" t="n">
-        <v>215.95068286643</v>
+        <v>154.7169663960923</v>
       </c>
       <c r="V42" t="n">
         <v>222.8098879348805</v>
@@ -25772,10 +25772,10 @@
         <v>241.7042839463748</v>
       </c>
       <c r="X42" t="n">
-        <v>126.261717789185</v>
+        <v>195.7822859889327</v>
       </c>
       <c r="Y42" t="n">
-        <v>126.1714283630119</v>
+        <v>195.6919965627596</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>135.4303488083864</v>
       </c>
       <c r="G43" t="n">
-        <v>117.5623115216423</v>
+        <v>158.000280143914</v>
       </c>
       <c r="H43" t="n">
         <v>152.2364732928948</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.650775837401952</v>
+        <v>76.17134403714958</v>
       </c>
       <c r="R43" t="n">
         <v>167.3026921626247</v>
@@ -25839,19 +25839,19 @@
         <v>214.0258988224275</v>
       </c>
       <c r="T43" t="n">
-        <v>217.9548902137367</v>
+        <v>177.516921591465</v>
       </c>
       <c r="U43" t="n">
-        <v>276.3283301419461</v>
+        <v>206.8077619421985</v>
       </c>
       <c r="V43" t="n">
-        <v>242.1469441092832</v>
+        <v>172.6263759095356</v>
       </c>
       <c r="W43" t="n">
         <v>276.5322991220462</v>
       </c>
       <c r="X43" t="n">
-        <v>146.1983879747447</v>
+        <v>215.7189561744923</v>
       </c>
       <c r="Y43" t="n">
         <v>208.59395413755</v>
@@ -25867,7 +25867,7 @@
         <v>372.7431424489358</v>
       </c>
       <c r="C44" t="n">
-        <v>285.7616243567151</v>
+        <v>355.2821925564627</v>
       </c>
       <c r="D44" t="n">
         <v>344.6923424061382</v>
@@ -25876,19 +25876,19 @@
         <v>371.939670857717</v>
       </c>
       <c r="F44" t="n">
-        <v>396.8853465271666</v>
+        <v>327.364778327419</v>
       </c>
       <c r="G44" t="n">
         <v>405.3120383005902</v>
       </c>
       <c r="H44" t="n">
-        <v>329.4841029012223</v>
+        <v>268.2503864308847</v>
       </c>
       <c r="I44" t="n">
         <v>200.4851903558611</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1.958590140067713</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>70.35785052685725</v>
+        <v>139.8784187266049</v>
       </c>
       <c r="S44" t="n">
         <v>199.0293703717005</v>
@@ -25927,13 +25927,13 @@
         <v>317.7615592555901</v>
       </c>
       <c r="W44" t="n">
-        <v>339.2502695028682</v>
+        <v>269.7297013031206</v>
       </c>
       <c r="X44" t="n">
         <v>290.2198332641766</v>
       </c>
       <c r="Y44" t="n">
-        <v>316.9721131112389</v>
+        <v>376.2472394415088</v>
       </c>
     </row>
     <row r="45">
@@ -25949,19 +25949,19 @@
         <v>162.7177997737709</v>
       </c>
       <c r="D45" t="n">
-        <v>137.4543663500939</v>
+        <v>67.93379815034632</v>
       </c>
       <c r="E45" t="n">
         <v>147.6543812408561</v>
       </c>
       <c r="F45" t="n">
-        <v>65.55794497909145</v>
+        <v>135.0785131788391</v>
       </c>
       <c r="G45" t="n">
-        <v>57.8322497489182</v>
+        <v>127.3528179486658</v>
       </c>
       <c r="H45" t="n">
-        <v>32.72417682220403</v>
+        <v>102.2447450219517</v>
       </c>
       <c r="I45" t="n">
         <v>79.40593363687027</v>
@@ -25997,10 +25997,10 @@
         <v>161.692471889293</v>
       </c>
       <c r="T45" t="n">
-        <v>190.1740294802768</v>
+        <v>120.6534612805292</v>
       </c>
       <c r="U45" t="n">
-        <v>215.95068286643</v>
+        <v>146.4301146666824</v>
       </c>
       <c r="V45" t="n">
         <v>222.8098879348805</v>
@@ -26043,13 +26043,13 @@
         <v>152.2364732928948</v>
       </c>
       <c r="I46" t="n">
-        <v>145.4597757127135</v>
+        <v>75.93920751296585</v>
       </c>
       <c r="J46" t="n">
-        <v>83.36848090212797</v>
+        <v>42.9305122798563</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>12.27879261133805</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26067,13 +26067,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.650775837401952</v>
+        <v>76.17134403714958</v>
       </c>
       <c r="R46" t="n">
         <v>97.78212396287705</v>
       </c>
       <c r="S46" t="n">
-        <v>185.8667228114938</v>
+        <v>214.0258988224275</v>
       </c>
       <c r="T46" t="n">
         <v>217.9548902137367</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>528132.1206797659</v>
+        <v>528132.1206797661</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>528132.1206797662</v>
+        <v>528132.1206797661</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>266461.3764647953</v>
+        <v>266461.3764647952</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811866</v>
+        <v>778312.5217811869</v>
       </c>
       <c r="C2" t="n">
         <v>778312.5217811863</v>
       </c>
       <c r="D2" t="n">
-        <v>778312.5217811863</v>
+        <v>778312.5217811865</v>
       </c>
       <c r="E2" t="n">
+        <v>268930.7372351783</v>
+      </c>
+      <c r="F2" t="n">
         <v>268930.7372351784</v>
-      </c>
-      <c r="F2" t="n">
-        <v>268930.7372351783</v>
       </c>
       <c r="G2" t="n">
         <v>362084.7130911782</v>
@@ -26334,7 +26334,7 @@
         <v>362084.7130911782</v>
       </c>
       <c r="I2" t="n">
-        <v>555175.8940287842</v>
+        <v>555175.8940287841</v>
       </c>
       <c r="J2" t="n">
         <v>555175.8940287841</v>
@@ -26346,7 +26346,7 @@
         <v>563125.2002480595</v>
       </c>
       <c r="M2" t="n">
-        <v>531855.9109460944</v>
+        <v>531855.9109460945</v>
       </c>
       <c r="N2" t="n">
         <v>370036.9907054636</v>
@@ -26355,7 +26355,7 @@
         <v>264083.3218259914</v>
       </c>
       <c r="P2" t="n">
-        <v>264083.3218259914</v>
+        <v>264083.3218259916</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>30316.74369563426</v>
+        <v>30316.74369563425</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>52344.91793576536</v>
+        <v>52344.91793576529</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>382520.176953525</v>
       </c>
       <c r="E4" t="n">
-        <v>62389.22960907308</v>
+        <v>62389.22960907307</v>
       </c>
       <c r="F4" t="n">
-        <v>62389.22960907296</v>
+        <v>62389.22960907309</v>
       </c>
       <c r="G4" t="n">
         <v>86645.5919894134</v>
@@ -26444,7 +26444,7 @@
         <v>198592.5815628484</v>
       </c>
       <c r="K4" t="n">
-        <v>198592.5815628485</v>
+        <v>198592.5815628484</v>
       </c>
       <c r="L4" t="n">
         <v>203375.7189936944</v>
@@ -26459,7 +26459,7 @@
         <v>59473.84423936647</v>
       </c>
       <c r="P4" t="n">
-        <v>59473.84423936647</v>
+        <v>59473.84423936648</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>5231.415353297574</v>
+      </c>
+      <c r="F5" t="n">
         <v>5231.415353297576</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5231.415353297569</v>
       </c>
       <c r="G5" t="n">
         <v>16219.50569496408</v>
@@ -26496,7 +26496,7 @@
         <v>26117.36886967386</v>
       </c>
       <c r="K5" t="n">
-        <v>26117.36886967387</v>
+        <v>26117.36886967386</v>
       </c>
       <c r="L5" t="n">
         <v>26396.00483749194</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>362164.7448276616</v>
+        <v>362120.6090489808</v>
       </c>
       <c r="C6" t="n">
-        <v>362164.7448276614</v>
+        <v>362120.6090489802</v>
       </c>
       <c r="D6" t="n">
-        <v>362164.7448276614</v>
+        <v>362120.6090489803</v>
       </c>
       <c r="E6" t="n">
-        <v>170993.3485771734</v>
+        <v>157544.42899465</v>
       </c>
       <c r="F6" t="n">
-        <v>201310.0922728078</v>
+        <v>187861.1726902843</v>
       </c>
       <c r="G6" t="n">
-        <v>206874.6974710354</v>
+        <v>195877.1983057752</v>
       </c>
       <c r="H6" t="n">
-        <v>259219.6154068006</v>
+        <v>248222.1162415405</v>
       </c>
       <c r="I6" t="n">
-        <v>258013.6491542106</v>
+        <v>252097.4968557293</v>
       </c>
       <c r="J6" t="n">
-        <v>320906.5121125718</v>
+        <v>314990.3598140906</v>
       </c>
       <c r="K6" t="n">
-        <v>330465.9435962618</v>
+        <v>324549.7912977808</v>
       </c>
       <c r="L6" t="n">
-        <v>325360.9170452372</v>
+        <v>319653.9570156843</v>
       </c>
       <c r="M6" t="n">
-        <v>320910.4519333061</v>
+        <v>314380.6158694911</v>
       </c>
       <c r="N6" t="n">
-        <v>262110.3553850517</v>
+        <v>251322.1266833252</v>
       </c>
       <c r="O6" t="n">
-        <v>199542.7189478127</v>
+        <v>185966.2358018896</v>
       </c>
       <c r="P6" t="n">
-        <v>199542.7189478127</v>
+        <v>185966.2358018898</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>11.9492893546125</v>
+      </c>
+      <c r="F2" t="n">
         <v>11.94928935461252</v>
-      </c>
-      <c r="F2" t="n">
-        <v>11.94928935461243</v>
       </c>
       <c r="G2" t="n">
         <v>18.62561623431243</v>
@@ -26709,10 +26709,10 @@
         <v>86.08226051657019</v>
       </c>
       <c r="J2" t="n">
+        <v>86.0822605165702</v>
+      </c>
+      <c r="K2" t="n">
         <v>86.08226051657019</v>
-      </c>
-      <c r="K2" t="n">
-        <v>86.08226051657027</v>
       </c>
       <c r="L2" t="n">
         <v>89.39663285141508</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>6.676326879699999</v>
+        <v>6.676326879699914</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>6.676326879699999</v>
+        <v>6.676326879699914</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -28089,31 +28089,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="C11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="D11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="E11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="F11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="G11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="H11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="I11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28137,28 +28137,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="S11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="T11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="U11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="V11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="W11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="X11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
     </row>
     <row r="12">
@@ -28168,28 +28168,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="C12" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="D12" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="E12" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="F12" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="G12" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="H12" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="I12" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -28216,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="S12" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="T12" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="U12" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="V12" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="W12" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="X12" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
     </row>
     <row r="13">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="C13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="D13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="E13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="F13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="G13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="H13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="I13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="K13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="L13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="M13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="N13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="O13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="P13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="R13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="S13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="T13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="U13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="V13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="W13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="X13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.94928935461252</v>
+        <v>11.9492893546125</v>
       </c>
     </row>
     <row r="14">
@@ -28326,31 +28326,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="C14" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="D14" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="E14" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="F14" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="G14" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="H14" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="I14" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28374,28 +28374,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="S14" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="T14" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="U14" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="V14" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="W14" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="X14" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
     </row>
     <row r="15">
@@ -28405,28 +28405,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="C15" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="D15" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="E15" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="F15" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="G15" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="H15" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="I15" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28453,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="S15" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="T15" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="U15" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="V15" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="W15" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="X15" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
     </row>
     <row r="16">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="C16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="D16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="E16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="F16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="G16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="H16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="I16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="L16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="M16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="N16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="O16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="P16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="R16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="S16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="T16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="U16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="V16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="W16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="X16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.94928935461243</v>
+        <v>11.94928935461252</v>
       </c>
     </row>
     <row r="17">
@@ -29064,22 +29064,22 @@
         <v>86.08226051657019</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>38.96656797198269</v>
+      </c>
+      <c r="P23" t="n">
         <v>86.08226051657019</v>
-      </c>
-      <c r="L23" t="n">
-        <v>38.96656797198269</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>86.08226051657019</v>
@@ -29274,37 +29274,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="C26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="D26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="E26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="F26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="G26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="H26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="I26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="J26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="L26" t="n">
-        <v>86.08226051657019</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -29319,31 +29319,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="R26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="S26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="T26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="U26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="V26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="W26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="X26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="Y26" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
     </row>
     <row r="27">
@@ -29353,28 +29353,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="C27" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="D27" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="E27" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="F27" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="G27" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="H27" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="I27" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="S27" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="T27" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="U27" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="V27" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="W27" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="X27" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="Y27" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="C28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="D28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="E28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="F28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="G28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="H28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="I28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="J28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="K28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="L28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="M28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="N28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="O28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="P28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="R28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="S28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="T28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="U28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="V28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="W28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="X28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
       <c r="Y28" t="n">
-        <v>86.08226051657019</v>
+        <v>86.0822605165702</v>
       </c>
     </row>
     <row r="29">
@@ -29511,34 +29511,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="C29" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="D29" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="E29" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="F29" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="G29" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="H29" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="I29" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="J29" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="K29" t="n">
-        <v>86.08226051657027</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -29547,40 +29547,40 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="P29" t="n">
-        <v>38.96656797198273</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.08226051657027</v>
+        <v>38.96656797198269</v>
       </c>
       <c r="R29" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="S29" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="T29" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="U29" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="V29" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="W29" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="X29" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="Y29" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
     </row>
     <row r="30">
@@ -29590,28 +29590,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="C30" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="D30" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="E30" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="F30" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="G30" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="H30" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="I30" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="S30" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="T30" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="U30" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="V30" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="W30" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="X30" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="Y30" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="C31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="D31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="E31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="F31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="G31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="H31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="I31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="J31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="K31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="L31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="M31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="N31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="O31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="P31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="R31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="S31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="T31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="U31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="V31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="W31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="X31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
       <c r="Y31" t="n">
-        <v>86.08226051657027</v>
+        <v>86.08226051657019</v>
       </c>
     </row>
     <row r="32">
@@ -29772,22 +29772,22 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J32" t="n">
+        <v>29.0234509674483</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>89.39663285141508</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>29.02345096744844</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
         <v>89.39663285141508</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -35418,16 +35418,16 @@
         <v>69.52056819974763</v>
       </c>
       <c r="M11" t="n">
+        <v>69.52056819974763</v>
+      </c>
+      <c r="N11" t="n">
         <v>66.71165635329321</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>69.52056819974763</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="O12" t="n">
+        <v>69.52056819974763</v>
+      </c>
+      <c r="P12" t="n">
         <v>66.71165635329321</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>39.53931461492866</v>
+        <v>39.53931461492864</v>
       </c>
       <c r="M13" t="n">
-        <v>51.53316631645311</v>
+        <v>51.53316631645309</v>
       </c>
       <c r="N13" t="n">
-        <v>56.08146173384111</v>
+        <v>56.0814617338411</v>
       </c>
       <c r="O13" t="n">
-        <v>36.53441726865219</v>
+        <v>36.53441726865218</v>
       </c>
       <c r="P13" t="n">
-        <v>9.227848619506005</v>
+        <v>9.227848619505991</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>69.52056819974763</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="M14" t="n">
+        <v>69.52056819974763</v>
+      </c>
+      <c r="N14" t="n">
         <v>66.71165635329321</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>69.52056819974763</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>69.52056819974763</v>
-      </c>
-      <c r="N15" t="n">
-        <v>66.71165635329321</v>
       </c>
       <c r="O15" t="n">
         <v>69.52056819974763</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>66.71165635329321</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>39.53931461492857</v>
+        <v>39.53931461492866</v>
       </c>
       <c r="M16" t="n">
-        <v>51.53316631645302</v>
+        <v>51.53316631645311</v>
       </c>
       <c r="N16" t="n">
-        <v>56.08146173384102</v>
+        <v>56.08146173384111</v>
       </c>
       <c r="O16" t="n">
-        <v>36.53441726865211</v>
+        <v>36.53441726865219</v>
       </c>
       <c r="P16" t="n">
-        <v>9.22784861950592</v>
+        <v>9.227848619506005</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,10 +36360,10 @@
         <v>74.13297116195767</v>
       </c>
       <c r="K23" t="n">
-        <v>190.1378220427544</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L23" t="n">
-        <v>220.8613675524459</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M23" t="n">
         <v>219.1673002655598</v>
@@ -36372,10 +36372,10 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O23" t="n">
-        <v>150.7019698410586</v>
+        <v>189.6685378130413</v>
       </c>
       <c r="P23" t="n">
-        <v>90.5657124162131</v>
+        <v>176.6479729327833</v>
       </c>
       <c r="Q23" t="n">
         <v>76.09156130202538</v>
@@ -36445,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>310.5348570774067</v>
+        <v>54.29799505047752</v>
       </c>
       <c r="N24" t="n">
         <v>310.5348570774067</v>
       </c>
       <c r="O24" t="n">
-        <v>179.5175740309629</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>74.13297116195767</v>
+        <v>74.13297116195768</v>
       </c>
       <c r="K26" t="n">
-        <v>104.0555615261842</v>
+        <v>190.1378220427544</v>
       </c>
       <c r="L26" t="n">
-        <v>267.9770600970334</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
         <v>219.1673002655598</v>
@@ -36615,7 +36615,7 @@
         <v>90.5657124162131</v>
       </c>
       <c r="Q26" t="n">
-        <v>76.09156130202538</v>
+        <v>76.0915613020254</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>124.9708108867248</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>310.5348570774067</v>
       </c>
       <c r="N27" t="n">
-        <v>286.5839605740625</v>
+        <v>310.5348570774067</v>
       </c>
       <c r="O27" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>63.81276869068734</v>
+        <v>63.81276869068735</v>
       </c>
       <c r="L28" t="n">
         <v>113.6722857768863</v>
@@ -36770,7 +36770,7 @@
         <v>110.6673884306099</v>
       </c>
       <c r="P28" t="n">
-        <v>83.36081978146368</v>
+        <v>83.36081978146369</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>74.13297116195776</v>
+        <v>74.13297116195767</v>
       </c>
       <c r="K29" t="n">
-        <v>190.1378220427545</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L29" t="n">
         <v>181.8947995804632</v>
@@ -36843,16 +36843,16 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>207.9338608153932</v>
+        <v>294.0161213319634</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410586</v>
+        <v>236.7842303576288</v>
       </c>
       <c r="P29" t="n">
-        <v>129.5322803881958</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q29" t="n">
-        <v>76.09156130202547</v>
+        <v>28.97586875743789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36922,16 +36922,16 @@
         <v>310.5348570774067</v>
       </c>
       <c r="N30" t="n">
-        <v>310.5348570774067</v>
+        <v>251.0173067385246</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>65.12472645518352</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>63.81276869068742</v>
+        <v>63.81276869068734</v>
       </c>
       <c r="L31" t="n">
-        <v>113.6722857768864</v>
+        <v>113.6722857768863</v>
       </c>
       <c r="M31" t="n">
-        <v>125.6661374784109</v>
+        <v>125.6661374784108</v>
       </c>
       <c r="N31" t="n">
-        <v>130.2144328957989</v>
+        <v>130.2144328957988</v>
       </c>
       <c r="O31" t="n">
         <v>110.6673884306099</v>
       </c>
       <c r="P31" t="n">
-        <v>83.36081978146376</v>
+        <v>83.36081978146368</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>77.44734349680256</v>
+        <v>17.07416161283579</v>
       </c>
       <c r="K32" t="n">
         <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
-        <v>210.9182505479116</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>308.5639331169749</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153932</v>
+        <v>297.3304936668083</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>240.0986026924737</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>172.7684151847029</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>310.5348570774067</v>
       </c>
       <c r="N33" t="n">
-        <v>310.5348570774067</v>
+        <v>54.29799505047752</v>
       </c>
       <c r="O33" t="n">
         <v>251.2660748322851</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37636,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>113.3808631277494</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>69.52056819974763</v>
       </c>
       <c r="L41" t="n">
+        <v>66.71165635329321</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>69.52056819974763</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
       <c r="O41" t="n">
-        <v>66.71165635329321</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>69.52056819974763</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>69.52056819974763</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>66.71165635329321</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="O42" t="n">
-        <v>66.71165635329321</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="P42" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,13 +38025,13 @@
         <v>69.52056819974763</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>69.52056819974763</v>
       </c>
       <c r="N44" t="n">
         <v>66.71165635329321</v>
       </c>
       <c r="O44" t="n">
-        <v>69.52056819974763</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>66.71165635329321</v>
+      </c>
+      <c r="O45" t="n">
         <v>69.52056819974763</v>
       </c>
-      <c r="L45" t="n">
+      <c r="P45" t="n">
         <v>69.52056819974763</v>
       </c>
-      <c r="M45" t="n">
-        <v>66.71165635329321</v>
-      </c>
-      <c r="N45" t="n">
+      <c r="Q45" t="n">
         <v>69.52056819974763</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
